--- a/results-latex-tables/LaTex_Table_Formatter_V4.4_08-Jul-2023.xlsx
+++ b/results-latex-tables/LaTex_Table_Formatter_V4.4_08-Jul-2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ResearchLab\Empirical_Study_REINFORCE\results-latex-tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rajesh\HEI\P-4 Research Phase\Empirical_Study_REINFORCE\results-latex-tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF44EF5-06E6-4589-ADEE-BE4B1C365B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F68DC9-56FF-4BD3-8901-59F50177EF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="559" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="436" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LATEX" sheetId="27" r:id="rId1"/>
@@ -22,6 +22,19 @@
     <sheet name="t-test" sheetId="35" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -470,7 +483,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,6 +704,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1099,7 +1120,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1149,6 +1170,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1518,117 +1543,117 @@
       <selection activeCell="B32" sqref="B32:K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="14" t="s">
         <v>66</v>
       </c>
       <c r="C1" s="15"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="str">
         <f>Large_table!W23</f>
         <v xml:space="preserve"> &amp;REINFORCE &amp; &amp; &amp;  &amp; SB-3 A2C &amp; &amp; &amp; &amp;SB-3 DQN &amp; &amp; &amp; &amp;SB-3 PPO &amp; &amp; &amp; \\</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="str">
         <f>Large_table!W24</f>
         <v>Model &amp;Precision &amp;Recall &amp;F1-score &amp; F-beta 0.5 &amp; &amp; Precision &amp;Recall &amp;F1-score &amp;F-beta 0.5 &amp; &amp;Precision &amp;Recall &amp;F1-score &amp;F-beta 0.5 &amp; &amp;Precision &amp;Recall &amp;F1-score&amp;F-beta 0.5\\</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="str">
         <f>Large_table!W25</f>
         <v>Simulated  - No noise &amp;0.842 &amp;0.878 &amp;0.838 &amp; 0.834 &amp; &amp; 0.424 &amp;0.451 &amp;0.423 &amp;0.421 &amp; &amp;0.426 &amp;0.674 &amp;0.471 &amp;0.410 &amp; &amp;0.504 &amp;0.200 &amp;0.271&amp;0.360\\</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f>Large_table!W26</f>
         <v>Simulated  - Low noise &amp;0.777 &amp;0.929 &amp;0.834 &amp; 0.796 &amp; &amp; 0.465 &amp;0.423 &amp;0.409 &amp;0.427 &amp; &amp;0.421 &amp;0.338 &amp;0.270 &amp;0.283 &amp; &amp;0.482 &amp;0.236 &amp;0.296&amp;0.369\\</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f>Large_table!W27</f>
         <v>Simulated  - High noise &amp;0.798 &amp;0.940 &amp;0.851 &amp; 0.816 &amp; &amp; 0.358 &amp;0.281 &amp;0.256 &amp;0.272 &amp; &amp;0.447 &amp;0.519 &amp;0.380 &amp;0.360 &amp; &amp;0.514 &amp;0.207 &amp;0.286&amp;0.382\\</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f>Large_table!W28</f>
         <v>PHM C01 SS - No noise &amp;0.478 &amp;0.363 &amp;0.400 &amp; 0.439 &amp; &amp; 0.501 &amp;0.500 &amp;0.493 &amp;0.496 &amp; &amp;0.472 &amp;0.807 &amp;0.568 &amp;0.490 &amp; &amp;0.440 &amp;0.417 &amp;0.387&amp;0.395\\</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <f>Large_table!W29</f>
         <v>PHM C01 SS - Low noise &amp;0.507 &amp;0.311 &amp;0.332 &amp; 0.383 &amp; &amp; 0.503 &amp;0.598 &amp;0.535 &amp;0.513 &amp; &amp;0.393 &amp;0.502 &amp;0.351 &amp;0.317 &amp; &amp;0.522 &amp;0.338 &amp;0.388&amp;0.448\\</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f>Large_table!W30</f>
         <v>PHM C01 SS - High noise &amp;0.693 &amp;0.562 &amp;0.579 &amp; 0.623 &amp; &amp; 0.266 &amp;0.282 &amp;0.267 &amp;0.262 &amp; &amp;0.458 &amp;0.525 &amp;0.400 &amp;0.384 &amp; &amp;0.456 &amp;0.369 &amp;0.372&amp;0.400\\</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f>Large_table!W31</f>
         <v>PHM C04 SS - No noise &amp;0.751 &amp;0.878 &amp;0.784 &amp; 0.757 &amp; &amp; 0.487 &amp;0.442 &amp;0.449 &amp;0.463 &amp; &amp;0.439 &amp;0.684 &amp;0.472 &amp;0.411 &amp; &amp;0.500 &amp;0.510 &amp;0.469&amp;0.473\\</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>Large_table!W32</f>
         <v>PHM C04 SS - Low noise &amp;0.662 &amp;0.756 &amp;0.672 &amp; 0.657 &amp; &amp; 0.409 &amp;0.455 &amp;0.428 &amp;0.416 &amp; &amp;0.411 &amp;0.500 &amp;0.370 &amp;0.341 &amp; &amp;0.488 &amp;0.280 &amp;0.324&amp;0.386\\</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <f>Large_table!W33</f>
         <v>PHM C04 SS - High noise &amp;0.611 &amp;0.713 &amp;0.620 &amp; 0.598 &amp; &amp; 0.518 &amp;0.607 &amp;0.552 &amp;0.530 &amp; &amp;0.358 &amp;0.451 &amp;0.325 &amp;0.294 &amp; &amp;0.428 &amp;0.262 &amp;0.286&amp;0.333\\</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f>Large_table!W34</f>
         <v>PHM C06 SS - No noise &amp;0.830 &amp;0.726 &amp;0.754 &amp; 0.792 &amp; &amp; 0.517 &amp;0.509 &amp;0.507 &amp;0.511 &amp; &amp;0.360 &amp;0.309 &amp;0.256 &amp;0.258 &amp; &amp;0.409 &amp;0.248 &amp;0.275&amp;0.321\\</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="str">
         <f>Large_table!W35</f>
         <v>PHM C06 SS - Low noise &amp;0.205 &amp;0.279 &amp;0.228 &amp; 0.212 &amp; &amp; 0.510 &amp;0.577 &amp;0.530 &amp;0.516 &amp; &amp;0.434 &amp;0.266 &amp;0.266 &amp;0.296 &amp; &amp;0.417 &amp;0.181 &amp;0.232&amp;0.294\\</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f>Large_table!W36</f>
         <v>PHM C06 SS - High noise &amp;0.709 &amp;0.843 &amp;0.759 &amp; 0.726 &amp; &amp; 0.316 &amp;0.324 &amp;0.311 &amp;0.308 &amp; &amp;0.449 &amp;0.518 &amp;0.400 &amp;0.375 &amp; &amp;0.388 &amp;0.222 &amp;0.265&amp;0.317\\</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f>Large_table!W37</f>
         <v>PHM C01 MS - No noise &amp;0.835 &amp;0.652 &amp;0.656 &amp; 0.716 &amp; &amp; 0.461 &amp;0.444 &amp;0.397 &amp;0.404 &amp; &amp;0.384 &amp;0.558 &amp;0.393 &amp;0.348 &amp; &amp;0.513 &amp;0.383 &amp;0.416&amp;0.460\\</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f>Large_table!W38</f>
         <v>PHM C04 MS - No noise &amp;0.739 &amp;0.255 &amp;0.359 &amp; 0.494 &amp; &amp; 0.498 &amp;0.589 &amp;0.490 &amp;0.470 &amp; &amp;0.323 &amp;0.209 &amp;0.160 &amp;0.168 &amp; &amp;0.499 &amp;0.393 &amp;0.421&amp;0.457\\</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f>Large_table!W39</f>
         <v>PHM C06 MS - No noise &amp;0.864 &amp;0.356 &amp;0.469 &amp; 0.616 &amp; &amp; 0.501 &amp;0.713 &amp;0.578 &amp;0.527 &amp; &amp;0.489 &amp;0.705 &amp;0.529 &amp;0.479 &amp; &amp;0.523 &amp;0.488 &amp;0.485&amp;0.498\\</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>62</v>
       </c>
@@ -1640,7 +1665,7 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" t="str">
         <f>'Env.-wise-tables'!O5</f>
         <v>A2C &amp; 0.449 &amp; 0.088 &amp; &amp;0.480 &amp; 0.084 &amp; &amp; 0.442 &amp; 0.070 &amp; &amp;0.436 &amp;0.071 \\</v>
@@ -1650,7 +1675,7 @@
         <v>A2C &amp; 0.416 &amp; 0.120 &amp; &amp;0.385 &amp; 0.073 &amp; &amp; 0.363 &amp; 0.072 &amp; &amp;0.373 &amp;0.082 \\</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
         <f>'Env.-wise-tables'!O6</f>
         <v>DQN &amp; 0.418 &amp; 0.185 &amp; &amp;0.504 &amp; 0.032 &amp; &amp; 0.374 &amp; 0.035 &amp; &amp;0.348 &amp;0.058 \\</v>
@@ -1660,7 +1685,7 @@
         <v>DQN &amp; 0.432 &amp; 0.184 &amp; &amp;0.510 &amp; 0.031 &amp; &amp; 0.374 &amp; 0.034 &amp; &amp;0.351 &amp;0.056 \\</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" t="str">
         <f>'Env.-wise-tables'!O7</f>
         <v>PPO &amp; 0.472 &amp; 0.144 &amp; &amp;0.316 &amp; 0.087 &amp; &amp; 0.345 &amp; 0.091 &amp; &amp;0.393 &amp;0.105 \\</v>
@@ -1670,7 +1695,7 @@
         <v>PPO &amp; 0.500 &amp; 0.178 &amp; &amp;0.215 &amp; 0.081 &amp; &amp; 0.285 &amp; 0.099 &amp; &amp;0.370 &amp;0.122 \\</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
         <f>'Env.-wise-tables'!O8</f>
         <v>REINFORCE &amp; 0.687 &amp; 0.059 &amp; &amp;0.629 &amp; 0.051 &amp; &amp; 0.609 &amp; 0.050 &amp; &amp;0.631 &amp;0.052 \\</v>
@@ -1680,7 +1705,7 @@
         <v>REINFORCE &amp; 0.806 &amp; 0.040 &amp; &amp;0.915 &amp; 0.038 &amp; &amp; 0.841 &amp; 0.035 &amp; &amp;0.816 &amp;0.037 \\</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>70</v>
       </c>
@@ -1692,7 +1717,7 @@
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" t="str">
         <f>'Env.-wise-tables'!O28</f>
         <v>A2C &amp; 0.447 &amp; 0.077 &amp; &amp;0.477 &amp; 0.091 &amp; &amp; 0.452 &amp; 0.072 &amp; &amp;0.446 &amp;0.070 \\</v>
@@ -1702,7 +1727,7 @@
         <v>A2C &amp; 0.487 &amp; 0.086 &amp; &amp;0.582 &amp; 0.075 &amp; &amp; 0.488 &amp; 0.063 &amp; &amp;0.467 &amp;0.065 \\</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" t="str">
         <f>'Env.-wise-tables'!O29</f>
         <v>DQN &amp; 0.419 &amp; 0.179 &amp; &amp;0.507 &amp; 0.032 &amp; &amp; 0.379 &amp; 0.036 &amp; &amp;0.352 &amp;0.057 \\</v>
@@ -1712,7 +1737,7 @@
         <v>DQN &amp; 0.399 &amp; 0.204 &amp; &amp;0.491 &amp; 0.032 &amp; &amp; 0.361 &amp; 0.035 &amp; &amp;0.332 &amp;0.060 \\</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" t="str">
         <f>'Env.-wise-tables'!O30</f>
         <v>PPO &amp; 0.450 &amp; 0.146 &amp; &amp;0.314 &amp; 0.082 &amp; &amp; 0.333 &amp; 0.087 &amp; &amp;0.374 &amp;0.102 \\</v>
@@ -1722,7 +1747,7 @@
         <v>PPO &amp; 0.512 &amp; 0.107 &amp; &amp;0.422 &amp; 0.107 &amp; &amp; 0.441 &amp; 0.096 &amp; &amp;0.472 &amp;0.096 \\</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" t="str">
         <f>'Env.-wise-tables'!O31</f>
         <v>REINFORCE &amp; 0.605 &amp; 0.046 &amp; &amp;0.603 &amp; 0.046 &amp; &amp; 0.570 &amp; 0.041 &amp; &amp;0.576 &amp;0.040 \\</v>
@@ -1732,108 +1757,108 @@
         <v>REINFORCE &amp; 0.813 &amp; 0.119 &amp; &amp;0.421 &amp; 0.079 &amp; &amp; 0.495 &amp; 0.090 &amp; &amp;0.609 &amp;0.101 \\</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" t="str">
         <f>Training_times!F1</f>
         <v>Environment &amp;REINFORCE &amp;A2C&amp;DQN&amp;PPO\\</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" t="str">
         <f>Training_times!F2</f>
         <v>Simulated  - No noise &amp;214.23 &amp;41.19&amp;4.03&amp;41.13\\</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" t="str">
         <f>Training_times!F3</f>
         <v>Simulated  - Low noise &amp;199.89 &amp;41.52&amp;3.55&amp;40.66\\</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" t="str">
         <f>Training_times!F4</f>
         <v>Simulated  - High noise &amp;134.16 &amp;17.88&amp;1.53&amp;20.90\\</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" t="str">
         <f>Training_times!F5</f>
         <v>PHM C01 SS - No noise &amp;330.54 &amp;18.85&amp;2.08&amp;32.65\\</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" t="str">
         <f>Training_times!F6</f>
         <v>PHM C01 SS - Low noise &amp;426.79 &amp;30.66&amp;3.69&amp;38.59\\</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" t="str">
         <f>Training_times!F7</f>
         <v>PHM C01 SS - High noise &amp;333.13 &amp;17.58&amp;1.80&amp;19.16\\</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" t="str">
         <f>Training_times!F8</f>
         <v>PHM C04 SS - No noise &amp;299.31 &amp;19.56&amp;1.86&amp;19.64\\</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" t="str">
         <f>Training_times!F9</f>
         <v>PHM C04 SS - Low noise &amp;264.90 &amp;18.27&amp;2.00&amp;19.69\\</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="str">
         <f>Training_times!F10</f>
         <v>PHM C04 SS - High noise &amp;256.44 &amp;17.65&amp;1.58&amp;19.11\\</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="str">
         <f>Training_times!F11</f>
         <v>PHM C06 SS - No noise &amp;339.65 &amp;17.64&amp;2.26&amp;19.50\\</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="str">
         <f>Training_times!F12</f>
         <v>PHM C06 SS - Low noise &amp;266.98 &amp;19.33&amp;1.84&amp;19.19\\</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="str">
         <f>Training_times!F13</f>
         <v>PHM C06 SS - High noise &amp;308.20 &amp;34.21&amp;4.18&amp;30.94\\</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="str">
         <f>Training_times!F14</f>
         <v>PHM C01 MS - No noise &amp;655.21 &amp;38.55&amp;4.96&amp;42.21\\</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="str">
         <f>Training_times!F15</f>
         <v>PHM C04 MS - No noise &amp;615.58 &amp;33.85&amp;7.36&amp;43.49\\</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="str">
         <f>Training_times!F16</f>
         <v>PHM C06 MS - No noise &amp;625.37 &amp;39.30&amp;5.85&amp;41.68\\</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="str">
         <f>Training_times!F17</f>
         <v>Overall average (s) &amp;351.36 &amp;27.07&amp;3.24&amp;29.90\\</v>
@@ -1854,28 +1879,28 @@
       <selection pane="bottomLeft" activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="35.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="35.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="8.5546875" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" customWidth="1"/>
-    <col min="13" max="16" width="8.5546875" customWidth="1"/>
-    <col min="17" max="17" width="3.33203125" customWidth="1"/>
-    <col min="18" max="21" width="8.5546875" customWidth="1"/>
-    <col min="22" max="22" width="4.33203125" customWidth="1"/>
-    <col min="23" max="31" width="8.5546875" customWidth="1"/>
-    <col min="32" max="34" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="6" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="8.5703125" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" customWidth="1"/>
+    <col min="13" max="16" width="8.5703125" customWidth="1"/>
+    <col min="17" max="17" width="3.28515625" customWidth="1"/>
+    <col min="18" max="21" width="8.5703125" customWidth="1"/>
+    <col min="22" max="22" width="4.28515625" customWidth="1"/>
+    <col min="23" max="31" width="8.5703125" customWidth="1"/>
+    <col min="32" max="34" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="5"/>
       <c r="S2" s="10" t="s">
         <v>65</v>
@@ -1888,7 +1913,7 @@
       <c r="Y2" s="10"/>
       <c r="Z2" s="10"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>63</v>
       </c>
@@ -1992,7 +2017,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2096,7 +2121,7 @@
         <v>0.115696489810349</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2200,7 +2225,7 @@
         <v>0.11924175800898799</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2304,7 +2329,7 @@
         <v>0.13149240539916601</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2408,7 +2433,7 @@
         <v>7.9165542543495504E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2512,7 +2537,7 @@
         <v>0.100676751918684</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2616,7 +2641,7 @@
         <v>0.106189249994857</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2720,7 +2745,7 @@
         <v>7.8106255948351397E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2824,7 +2849,7 @@
         <v>0.102583086396875</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2928,7 +2953,7 @@
         <v>0.112357678620902</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -3032,7 +3057,7 @@
         <v>0.10724130203290901</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -3136,7 +3161,7 @@
         <v>0.103589433196096</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -3240,7 +3265,7 @@
         <v>0.12528854245706</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -3344,7 +3369,7 @@
         <v>9.8786968346033302E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -3448,7 +3473,7 @@
         <v>0.10096395722653199</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -3552,7 +3577,7 @@
         <v>8.6960345503749703E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>64</v>
       </c>
@@ -3584,7 +3609,7 @@
       <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>1</v>
       </c>
@@ -3647,7 +3672,7 @@
       </c>
       <c r="W22" s="8"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>28</v>
       </c>
@@ -3665,7 +3690,7 @@
         <v xml:space="preserve"> &amp;REINFORCE &amp; &amp; &amp;  &amp; SB-3 A2C &amp; &amp; &amp; &amp;SB-3 DQN &amp; &amp; &amp; &amp;SB-3 PPO &amp; &amp; &amp; \\</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>35</v>
       </c>
@@ -3726,7 +3751,7 @@
         <v>Model &amp;Precision &amp;Recall &amp;F1-score &amp; F-beta 0.5 &amp; &amp; Precision &amp;Recall &amp;F1-score &amp;F-beta 0.5 &amp; &amp;Precision &amp;Recall &amp;F1-score &amp;F-beta 0.5 &amp; &amp;Precision &amp;Recall &amp;F1-score&amp;F-beta 0.5\\</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>36</v>
       </c>
@@ -3802,7 +3827,7 @@
         <v>Simulated  - No noise &amp;0.842 &amp;0.878 &amp;0.838 &amp; 0.834 &amp; &amp; 0.424 &amp;0.451 &amp;0.423 &amp;0.421 &amp; &amp;0.426 &amp;0.674 &amp;0.471 &amp;0.410 &amp; &amp;0.504 &amp;0.200 &amp;0.271&amp;0.360\\</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>43</v>
       </c>
@@ -3878,7 +3903,7 @@
         <v>Simulated  - Low noise &amp;0.777 &amp;0.929 &amp;0.834 &amp; 0.796 &amp; &amp; 0.465 &amp;0.423 &amp;0.409 &amp;0.427 &amp; &amp;0.421 &amp;0.338 &amp;0.270 &amp;0.283 &amp; &amp;0.482 &amp;0.236 &amp;0.296&amp;0.369\\</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>44</v>
       </c>
@@ -3955,7 +3980,7 @@
         <v>Simulated  - High noise &amp;0.798 &amp;0.940 &amp;0.851 &amp; 0.816 &amp; &amp; 0.358 &amp;0.281 &amp;0.256 &amp;0.272 &amp; &amp;0.447 &amp;0.519 &amp;0.380 &amp;0.360 &amp; &amp;0.514 &amp;0.207 &amp;0.286&amp;0.382\\</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>37</v>
       </c>
@@ -4031,7 +4056,7 @@
         <v>PHM C01 SS - No noise &amp;0.478 &amp;0.363 &amp;0.400 &amp; 0.439 &amp; &amp; 0.501 &amp;0.500 &amp;0.493 &amp;0.496 &amp; &amp;0.472 &amp;0.807 &amp;0.568 &amp;0.490 &amp; &amp;0.440 &amp;0.417 &amp;0.387&amp;0.395\\</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>45</v>
       </c>
@@ -4107,7 +4132,7 @@
         <v>PHM C01 SS - Low noise &amp;0.507 &amp;0.311 &amp;0.332 &amp; 0.383 &amp; &amp; 0.503 &amp;0.598 &amp;0.535 &amp;0.513 &amp; &amp;0.393 &amp;0.502 &amp;0.351 &amp;0.317 &amp; &amp;0.522 &amp;0.338 &amp;0.388&amp;0.448\\</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>46</v>
       </c>
@@ -4183,7 +4208,7 @@
         <v>PHM C01 SS - High noise &amp;0.693 &amp;0.562 &amp;0.579 &amp; 0.623 &amp; &amp; 0.266 &amp;0.282 &amp;0.267 &amp;0.262 &amp; &amp;0.458 &amp;0.525 &amp;0.400 &amp;0.384 &amp; &amp;0.456 &amp;0.369 &amp;0.372&amp;0.400\\</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>38</v>
       </c>
@@ -4259,7 +4284,7 @@
         <v>PHM C04 SS - No noise &amp;0.751 &amp;0.878 &amp;0.784 &amp; 0.757 &amp; &amp; 0.487 &amp;0.442 &amp;0.449 &amp;0.463 &amp; &amp;0.439 &amp;0.684 &amp;0.472 &amp;0.411 &amp; &amp;0.500 &amp;0.510 &amp;0.469&amp;0.473\\</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>47</v>
       </c>
@@ -4335,7 +4360,7 @@
         <v>PHM C04 SS - Low noise &amp;0.662 &amp;0.756 &amp;0.672 &amp; 0.657 &amp; &amp; 0.409 &amp;0.455 &amp;0.428 &amp;0.416 &amp; &amp;0.411 &amp;0.500 &amp;0.370 &amp;0.341 &amp; &amp;0.488 &amp;0.280 &amp;0.324&amp;0.386\\</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>48</v>
       </c>
@@ -4411,7 +4436,7 @@
         <v>PHM C04 SS - High noise &amp;0.611 &amp;0.713 &amp;0.620 &amp; 0.598 &amp; &amp; 0.518 &amp;0.607 &amp;0.552 &amp;0.530 &amp; &amp;0.358 &amp;0.451 &amp;0.325 &amp;0.294 &amp; &amp;0.428 &amp;0.262 &amp;0.286&amp;0.333\\</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>39</v>
       </c>
@@ -4487,7 +4512,7 @@
         <v>PHM C06 SS - No noise &amp;0.830 &amp;0.726 &amp;0.754 &amp; 0.792 &amp; &amp; 0.517 &amp;0.509 &amp;0.507 &amp;0.511 &amp; &amp;0.360 &amp;0.309 &amp;0.256 &amp;0.258 &amp; &amp;0.409 &amp;0.248 &amp;0.275&amp;0.321\\</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>49</v>
       </c>
@@ -4563,7 +4588,7 @@
         <v>PHM C06 SS - Low noise &amp;0.205 &amp;0.279 &amp;0.228 &amp; 0.212 &amp; &amp; 0.510 &amp;0.577 &amp;0.530 &amp;0.516 &amp; &amp;0.434 &amp;0.266 &amp;0.266 &amp;0.296 &amp; &amp;0.417 &amp;0.181 &amp;0.232&amp;0.294\\</v>
       </c>
     </row>
-    <row r="36" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>50</v>
       </c>
@@ -4640,7 +4665,7 @@
         <v>PHM C06 SS - High noise &amp;0.709 &amp;0.843 &amp;0.759 &amp; 0.726 &amp; &amp; 0.316 &amp;0.324 &amp;0.311 &amp;0.308 &amp; &amp;0.449 &amp;0.518 &amp;0.400 &amp;0.375 &amp; &amp;0.388 &amp;0.222 &amp;0.265&amp;0.317\\</v>
       </c>
     </row>
-    <row r="37" spans="2:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>40</v>
       </c>
@@ -4716,7 +4741,7 @@
         <v>PHM C01 MS - No noise &amp;0.835 &amp;0.652 &amp;0.656 &amp; 0.716 &amp; &amp; 0.461 &amp;0.444 &amp;0.397 &amp;0.404 &amp; &amp;0.384 &amp;0.558 &amp;0.393 &amp;0.348 &amp; &amp;0.513 &amp;0.383 &amp;0.416&amp;0.460\\</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>41</v>
       </c>
@@ -4792,7 +4817,7 @@
         <v>PHM C04 MS - No noise &amp;0.739 &amp;0.255 &amp;0.359 &amp; 0.494 &amp; &amp; 0.498 &amp;0.589 &amp;0.490 &amp;0.470 &amp; &amp;0.323 &amp;0.209 &amp;0.160 &amp;0.168 &amp; &amp;0.499 &amp;0.393 &amp;0.421&amp;0.457\\</v>
       </c>
     </row>
-    <row r="39" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
         <v>42</v>
       </c>
@@ -4869,8 +4894,8 @@
         <v>PHM C06 MS - No noise &amp;0.864 &amp;0.356 &amp;0.469 &amp; 0.616 &amp; &amp; 0.501 &amp;0.713 &amp;0.578 &amp;0.527 &amp; &amp;0.489 &amp;0.705 &amp;0.529 &amp;0.479 &amp; &amp;0.523 &amp;0.488 &amp;0.485&amp;0.498\\</v>
       </c>
     </row>
-    <row r="40" spans="2:23" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>60</v>
       </c>
@@ -4939,7 +4964,7 @@
         <v>0.49782494560660101</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>61</v>
       </c>
@@ -5022,26 +5047,26 @@
       <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="2.109375" customWidth="1"/>
-    <col min="8" max="8" width="2.109375" customWidth="1"/>
-    <col min="11" max="11" width="2.109375" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="2.140625" customWidth="1"/>
+    <col min="8" max="8" width="2.140625" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="2:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>92</v>
       </c>
@@ -5067,7 +5092,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -5100,7 +5125,7 @@
         <v>A2C &amp; 0.449 &amp; 0.088 &amp; &amp;0.480 &amp; 0.084 &amp; &amp; 0.442 &amp; 0.070 &amp; &amp;0.436 &amp;0.071 \\</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>26</v>
       </c>
@@ -5133,7 +5158,7 @@
         <v>DQN &amp; 0.418 &amp; 0.185 &amp; &amp;0.504 &amp; 0.032 &amp; &amp; 0.374 &amp; 0.035 &amp; &amp;0.348 &amp;0.058 \\</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>27</v>
       </c>
@@ -5166,7 +5191,7 @@
         <v>PPO &amp; 0.472 &amp; 0.144 &amp; &amp;0.316 &amp; 0.087 &amp; &amp; 0.345 &amp; 0.091 &amp; &amp;0.393 &amp;0.105 \\</v>
       </c>
     </row>
-    <row r="8" spans="2:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>28</v>
       </c>
@@ -5202,7 +5227,7 @@
         <v>REINFORCE &amp; 0.687 &amp; 0.059 &amp; &amp;0.629 &amp; 0.051 &amp; &amp; 0.609 &amp; 0.050 &amp; &amp;0.631 &amp;0.052 \\</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -5215,7 +5240,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>73</v>
       </c>
@@ -5255,7 +5280,7 @@
         <v>-5.7000000000000037E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>74</v>
       </c>
@@ -5295,7 +5320,7 @@
         <v>7.7766666666666664E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="1">
         <f>D8-D11</f>
@@ -5314,7 +5339,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="2:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>100</v>
       </c>
@@ -5330,7 +5355,7 @@
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>92</v>
       </c>
@@ -5359,7 +5384,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -5372,7 +5397,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -5405,7 +5430,7 @@
         <v>A2C &amp; 0.416 &amp; 0.120 &amp; &amp;0.385 &amp; 0.073 &amp; &amp; 0.363 &amp; 0.072 &amp; &amp;0.373 &amp;0.082 \\</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>26</v>
       </c>
@@ -5438,7 +5463,7 @@
         <v>DQN &amp; 0.432 &amp; 0.184 &amp; &amp;0.510 &amp; 0.031 &amp; &amp; 0.374 &amp; 0.034 &amp; &amp;0.351 &amp;0.056 \\</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>27</v>
       </c>
@@ -5471,7 +5496,7 @@
         <v>PPO &amp; 0.500 &amp; 0.178 &amp; &amp;0.215 &amp; 0.081 &amp; &amp; 0.285 &amp; 0.099 &amp; &amp;0.370 &amp;0.122 \\</v>
       </c>
     </row>
-    <row r="19" spans="2:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>28</v>
       </c>
@@ -5507,7 +5532,7 @@
         <v>REINFORCE &amp; 0.806 &amp; 0.040 &amp; &amp;0.915 &amp; 0.038 &amp; &amp; 0.841 &amp; 0.035 &amp; &amp;0.816 &amp;0.037 \\</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -5520,7 +5545,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>73</v>
       </c>
@@ -5560,7 +5585,7 @@
         <v>-1.9299999999999998E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>74</v>
       </c>
@@ -5600,7 +5625,7 @@
         <v>8.6800000000000002E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -5613,7 +5638,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -5626,7 +5651,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="2:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
         <v>101</v>
       </c>
@@ -5642,7 +5667,7 @@
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>92</v>
       </c>
@@ -5671,7 +5696,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -5684,7 +5709,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>25</v>
       </c>
@@ -5717,7 +5742,7 @@
         <v>A2C &amp; 0.447 &amp; 0.077 &amp; &amp;0.477 &amp; 0.091 &amp; &amp; 0.452 &amp; 0.072 &amp; &amp;0.446 &amp;0.070 \\</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>26</v>
       </c>
@@ -5750,7 +5775,7 @@
         <v>DQN &amp; 0.419 &amp; 0.179 &amp; &amp;0.507 &amp; 0.032 &amp; &amp; 0.379 &amp; 0.036 &amp; &amp;0.352 &amp;0.057 \\</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -5783,7 +5808,7 @@
         <v>PPO &amp; 0.450 &amp; 0.146 &amp; &amp;0.314 &amp; 0.082 &amp; &amp; 0.333 &amp; 0.087 &amp; &amp;0.374 &amp;0.102 \\</v>
       </c>
     </row>
-    <row r="31" spans="2:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -5819,7 +5844,7 @@
         <v>REINFORCE &amp; 0.605 &amp; 0.046 &amp; &amp;0.603 &amp; 0.046 &amp; &amp; 0.570 &amp; 0.041 &amp; &amp;0.576 &amp;0.040 \\</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -5832,7 +5857,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -5845,7 +5870,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="2:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
         <v>102</v>
       </c>
@@ -5861,7 +5886,7 @@
       <c r="L34" s="17"/>
       <c r="M34" s="17"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>92</v>
       </c>
@@ -5890,7 +5915,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -5903,7 +5928,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>25</v>
       </c>
@@ -5936,7 +5961,7 @@
         <v>A2C &amp; 0.487 &amp; 0.086 &amp; &amp;0.582 &amp; 0.075 &amp; &amp; 0.488 &amp; 0.063 &amp; &amp;0.467 &amp;0.065 \\</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>26</v>
       </c>
@@ -5969,7 +5994,7 @@
         <v>DQN &amp; 0.399 &amp; 0.204 &amp; &amp;0.491 &amp; 0.032 &amp; &amp; 0.361 &amp; 0.035 &amp; &amp;0.332 &amp;0.060 \\</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>27</v>
       </c>
@@ -6002,7 +6027,7 @@
         <v>PPO &amp; 0.512 &amp; 0.107 &amp; &amp;0.422 &amp; 0.107 &amp; &amp; 0.441 &amp; 0.096 &amp; &amp;0.472 &amp;0.096 \\</v>
       </c>
     </row>
-    <row r="40" spans="2:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:15" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>28</v>
       </c>
@@ -6051,14 +6076,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -6079,7 +6104,7 @@
         <v>Environment &amp;REINFORCE &amp;A2C&amp;DQN&amp;PPO\\</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -6100,7 +6125,7 @@
         <v>Simulated  - No noise &amp;214.23 &amp;41.19&amp;4.03&amp;41.13\\</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -6121,7 +6146,7 @@
         <v>Simulated  - Low noise &amp;199.89 &amp;41.52&amp;3.55&amp;40.66\\</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -6142,7 +6167,7 @@
         <v>Simulated  - High noise &amp;134.16 &amp;17.88&amp;1.53&amp;20.90\\</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -6163,7 +6188,7 @@
         <v>PHM C01 SS - No noise &amp;330.54 &amp;18.85&amp;2.08&amp;32.65\\</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -6184,7 +6209,7 @@
         <v>PHM C01 SS - Low noise &amp;426.79 &amp;30.66&amp;3.69&amp;38.59\\</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -6205,7 +6230,7 @@
         <v>PHM C01 SS - High noise &amp;333.13 &amp;17.58&amp;1.80&amp;19.16\\</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -6226,7 +6251,7 @@
         <v>PHM C04 SS - No noise &amp;299.31 &amp;19.56&amp;1.86&amp;19.64\\</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -6247,7 +6272,7 @@
         <v>PHM C04 SS - Low noise &amp;264.90 &amp;18.27&amp;2.00&amp;19.69\\</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -6268,7 +6293,7 @@
         <v>PHM C04 SS - High noise &amp;256.44 &amp;17.65&amp;1.58&amp;19.11\\</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -6289,7 +6314,7 @@
         <v>PHM C06 SS - No noise &amp;339.65 &amp;17.64&amp;2.26&amp;19.50\\</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -6310,7 +6335,7 @@
         <v>PHM C06 SS - Low noise &amp;266.98 &amp;19.33&amp;1.84&amp;19.19\\</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -6331,7 +6356,7 @@
         <v>PHM C06 SS - High noise &amp;308.20 &amp;34.21&amp;4.18&amp;30.94\\</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -6352,7 +6377,7 @@
         <v>PHM C01 MS - No noise &amp;655.21 &amp;38.55&amp;4.96&amp;42.21\\</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -6373,7 +6398,7 @@
         <v>PHM C04 MS - No noise &amp;615.58 &amp;33.85&amp;7.36&amp;43.49\\</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -6394,7 +6419,7 @@
         <v>PHM C06 MS - No noise &amp;625.37 &amp;39.30&amp;5.85&amp;41.68\\</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -6433,28 +6458,28 @@
       <selection pane="bottomLeft" activeCell="AE43" sqref="AE43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="35.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="35.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="8.5546875" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" customWidth="1"/>
-    <col min="13" max="16" width="8.5546875" customWidth="1"/>
-    <col min="17" max="17" width="3.33203125" customWidth="1"/>
-    <col min="18" max="21" width="8.5546875" customWidth="1"/>
-    <col min="22" max="22" width="4.33203125" customWidth="1"/>
-    <col min="23" max="31" width="8.5546875" customWidth="1"/>
-    <col min="32" max="34" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="6" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="8.5703125" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" customWidth="1"/>
+    <col min="13" max="16" width="8.5703125" customWidth="1"/>
+    <col min="17" max="17" width="3.28515625" customWidth="1"/>
+    <col min="18" max="21" width="8.5703125" customWidth="1"/>
+    <col min="22" max="22" width="4.28515625" customWidth="1"/>
+    <col min="23" max="31" width="8.5703125" customWidth="1"/>
+    <col min="32" max="34" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:34" ht="27" x14ac:dyDescent="0.35">
       <c r="B1" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="5"/>
       <c r="S2" s="10"/>
       <c r="T2" s="10"/>
@@ -6465,7 +6490,7 @@
       <c r="Y2" s="10"/>
       <c r="Z2" s="10"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>63</v>
       </c>
@@ -6521,7 +6546,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6593,7 +6618,7 @@
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -6665,7 +6690,7 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -6737,7 +6762,7 @@
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -6809,7 +6834,7 @@
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -6881,7 +6906,7 @@
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -6953,7 +6978,7 @@
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -7025,7 +7050,7 @@
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -7097,7 +7122,7 @@
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -7169,7 +7194,7 @@
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -7241,7 +7266,7 @@
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -7313,7 +7338,7 @@
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -7385,7 +7410,7 @@
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -7457,7 +7482,7 @@
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -7529,7 +7554,7 @@
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -7601,7 +7626,7 @@
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
     </row>
-    <row r="20" spans="1:34" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>64</v>
       </c>
@@ -7633,7 +7658,7 @@
       <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>1</v>
       </c>
@@ -7696,7 +7721,7 @@
       </c>
       <c r="W22" s="8"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>28</v>
       </c>
@@ -7714,7 +7739,7 @@
         <v xml:space="preserve"> &amp;REINFORCE &amp; &amp; &amp;  &amp; SB-3 A2C &amp; &amp; &amp; &amp;SB-3 DQN &amp; &amp; &amp; &amp;SB-3 PPO &amp; &amp; &amp; \\</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>35</v>
       </c>
@@ -7775,7 +7800,7 @@
         <v>Model &amp;Precision &amp;Recall &amp;F1-score &amp; F-beta 0.5 &amp; &amp; Precision &amp;Recall &amp;F1-score &amp;F-beta 0.5 &amp; &amp;Precision &amp;Recall &amp;F1-score &amp;F-beta 0.5 &amp; &amp;Precision &amp;Recall &amp;F1-score&amp;F-beta 0.5\\</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>36</v>
       </c>
@@ -7851,7 +7876,7 @@
         <v>Simulated  - No noise &amp;0.897 &amp;0.960 &amp;0.926 &amp; 0.908 &amp; &amp; 0.500 &amp;1.000 &amp;0.667 &amp;0.556 &amp; &amp;0.505 &amp;0.980 &amp;0.667 &amp;0.560 &amp; &amp;0.669 &amp;0.430 &amp;0.518&amp;0.597\\</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>43</v>
       </c>
@@ -7927,7 +7952,7 @@
         <v>Simulated  - Low noise &amp;0.960 &amp;0.945 &amp;0.952 &amp; 0.957 &amp; &amp; 0.516 &amp;1.000 &amp;0.680 &amp;0.571 &amp; &amp;0.500 &amp;0.980 &amp;0.662 &amp;0.554 &amp; &amp;0.633 &amp;0.460 &amp;0.530&amp;0.586\\</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>44</v>
       </c>
@@ -8004,7 +8029,7 @@
         <v>Simulated  - High noise &amp;0.922 &amp;0.990 &amp;0.955 &amp; 0.935 &amp; &amp; 0.503 &amp;1.000 &amp;0.669 &amp;0.558 &amp; &amp;0.504 &amp;0.990 &amp;0.668 &amp;0.559 &amp; &amp;0.569 &amp;0.355 &amp;0.434&amp;0.505\\</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>37</v>
       </c>
@@ -8080,7 +8105,7 @@
         <v>PHM C01 SS - No noise &amp;0.889 &amp;0.995 &amp;0.939 &amp; 0.908 &amp; &amp; 0.586 &amp;0.625 &amp;0.603 &amp;0.592 &amp; &amp;0.647 &amp;0.970 &amp;0.776 &amp;0.693 &amp; &amp;0.543 &amp;1.000 &amp;0.703&amp;0.597\\</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>45</v>
       </c>
@@ -8156,7 +8181,7 @@
         <v>PHM C01 SS - Low noise &amp;0.988 &amp;0.765 &amp;0.861 &amp; 0.932 &amp; &amp; 0.499 &amp;0.995 &amp;0.664 &amp;0.554 &amp; &amp;0.504 &amp;0.990 &amp;0.668 &amp;0.559 &amp; &amp;0.623 &amp;0.740 &amp;0.675&amp;0.643\\</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>46</v>
       </c>
@@ -8232,7 +8257,7 @@
         <v>PHM C01 SS - High noise &amp;0.850 &amp;0.970 &amp;0.905 &amp; 0.871 &amp; &amp; 0.521 &amp;0.680 &amp;0.588 &amp;0.546 &amp; &amp;0.505 &amp;0.985 &amp;0.668 &amp;0.560 &amp; &amp;0.520 &amp;0.725 &amp;0.604&amp;0.551\\</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>38</v>
       </c>
@@ -8308,7 +8333,7 @@
         <v>PHM C04 SS - No noise &amp;0.811 &amp;1.000 &amp;0.895 &amp; 0.842 &amp; &amp; 0.536 &amp;0.645 &amp;0.583 &amp;0.554 &amp; &amp;0.501 &amp;0.965 &amp;0.660 &amp;0.554 &amp; &amp;0.579 &amp;0.895 &amp;0.702&amp;0.622\\</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>47</v>
       </c>
@@ -8384,7 +8409,7 @@
         <v>PHM C04 SS - Low noise &amp;0.798 &amp;0.980 &amp;0.879 &amp; 0.829 &amp; &amp; 0.556 &amp;0.665 &amp;0.603 &amp;0.573 &amp; &amp;0.734 &amp;0.990 &amp;0.843 &amp;0.774 &amp; &amp;0.546 &amp;0.660 &amp;0.596&amp;0.565\\</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>48</v>
       </c>
@@ -8460,7 +8485,7 @@
         <v>PHM C04 SS - High noise &amp;0.708 &amp;0.840 &amp;0.767 &amp; 0.730 &amp; &amp; 0.521 &amp;0.835 &amp;0.641 &amp;0.563 &amp; &amp;0.511 &amp;0.985 &amp;0.672 &amp;0.565 &amp; &amp;0.517 &amp;0.820 &amp;0.633&amp;0.558\\</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>39</v>
       </c>
@@ -8536,7 +8561,7 @@
         <v>PHM C06 SS - No noise &amp;1.000 &amp;0.895 &amp;0.944 &amp; 0.977 &amp; &amp; 0.520 &amp;0.680 &amp;0.587 &amp;0.545 &amp; &amp;0.935 &amp;0.975 &amp;0.954 &amp;0.942 &amp; &amp;0.587 &amp;0.650 &amp;0.615&amp;0.597\\</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>49</v>
       </c>
@@ -8612,7 +8637,7 @@
         <v>PHM C06 SS - Low noise &amp;0.943 &amp;0.795 &amp;0.861 &amp; 0.908 &amp; &amp; 0.501 &amp;1.000 &amp;0.668 &amp;0.557 &amp; &amp;0.961 &amp;0.725 &amp;0.826 &amp;0.901 &amp; &amp;0.552 &amp;0.370 &amp;0.438&amp;0.497\\</v>
       </c>
     </row>
-    <row r="36" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>50</v>
       </c>
@@ -8689,7 +8714,7 @@
         <v>PHM C06 SS - High noise &amp;0.821 &amp;0.845 &amp;0.831 &amp; 0.825 &amp; &amp; 0.540 &amp;0.755 &amp;0.628 &amp;0.572 &amp; &amp;0.980 &amp;0.960 &amp;0.969 &amp;0.976 &amp; &amp;0.521 &amp;0.615 &amp;0.564&amp;0.537\\</v>
       </c>
     </row>
-    <row r="37" spans="2:23" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>40</v>
       </c>
@@ -8765,7 +8790,7 @@
         <v>PHM C01 MS - No noise &amp;0.827 &amp;0.995 &amp;0.903 &amp; 0.856 &amp; &amp; 0.500 &amp;1.000 &amp;0.667 &amp;0.556 &amp; &amp;0.505 &amp;0.985 &amp;0.668 &amp;0.560 &amp; &amp;0.512 &amp;0.595 &amp;0.549&amp;0.526\\</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>41</v>
       </c>
@@ -8841,7 +8866,7 @@
         <v>PHM C04 MS - No noise &amp;0.910 &amp;0.425 &amp;0.577 &amp; 0.738 &amp; &amp; 0.500 &amp;1.000 &amp;0.667 &amp;0.556 &amp; &amp;0.501 &amp;0.975 &amp;0.662 &amp;0.555 &amp; &amp;0.501 &amp;0.635 &amp;0.558&amp;0.522\\</v>
       </c>
     </row>
-    <row r="39" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
         <v>42</v>
       </c>
@@ -8918,8 +8943,8 @@
         <v>PHM C06 MS - No noise &amp;0.934 &amp;0.865 &amp;0.896 &amp; 0.918 &amp; &amp; 0.500 &amp;1.000 &amp;0.667 &amp;0.556 &amp; &amp;0.969 &amp;0.600 &amp;0.741 &amp;0.863 &amp; &amp;0.497 &amp;0.690 &amp;0.577&amp;0.526\\</v>
       </c>
     </row>
-    <row r="40" spans="2:23" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>60</v>
       </c>
@@ -8988,7 +9013,7 @@
         <v>0.64287979046043497</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>61</v>
       </c>
@@ -9071,12 +9096,12 @@
       <selection activeCell="AE2" sqref="AE2:AH17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -9180,7 +9205,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9284,7 +9309,7 @@
         <v>9.4975803642325801E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -9388,7 +9413,7 @@
         <v>5.6546077681772798E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -9492,7 +9517,7 @@
         <v>0.110071007683241</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -9596,7 +9621,7 @@
         <v>2.1359683683162801E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -9700,7 +9725,7 @@
         <v>8.6715824837762204E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -9804,7 +9829,7 @@
         <v>4.4657391934316497E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -9908,7 +9933,7 @@
         <v>4.2102890625757498E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -10012,7 +10037,7 @@
         <v>0.113689507381839</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -10116,7 +10141,7 @@
         <v>3.5002933118008298E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -10220,7 +10245,7 @@
         <v>8.1307600094869203E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -10324,7 +10349,7 @@
         <v>0.11980298001920001</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -10428,7 +10453,7 @@
         <v>8.80673168504435E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -10532,7 +10557,7 @@
         <v>0.11273516591433699</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -10636,7 +10661,7 @@
         <v>7.8186221756150295E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -10740,7 +10765,7 @@
         <v>4.3757796179661398E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -10774,7 +10799,7 @@
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C19" s="19">
         <f>AVERAGE(C3:C17)</f>
         <v>0.88392420394707583</v>
@@ -10904,7 +10929,7 @@
         <v>7.5265213426856478E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -10938,7 +10963,7 @@
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>106</v>
       </c>
@@ -10979,7 +11004,7 @@
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>109</v>
       </c>
@@ -11022,7 +11047,7 @@
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>25</v>
       </c>
@@ -11065,7 +11090,7 @@
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>26</v>
       </c>
@@ -11108,7 +11133,7 @@
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
@@ -11160,59 +11185,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA18A990-26F2-4A3D-B461-CA3EE7632A75}">
   <dimension ref="B2:Q56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" customWidth="1"/>
-    <col min="9" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="4.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="11" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="11" customWidth="1"/>
+    <col min="14" max="16" width="9.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
+    <col min="18" max="18" width="11" customWidth="1"/>
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="12" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="33" max="34" width="12" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="11" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="38" max="39" width="12" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="7" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="12" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
         <v>113</v>
       </c>
@@ -11220,7 +11247,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
         <v>115</v>
       </c>
@@ -11228,7 +11255,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>117</v>
       </c>
@@ -11236,7 +11263,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="s">
         <v>119</v>
       </c>
@@ -11244,20 +11271,20 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G8" s="22" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G9" s="22" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
     </row>
-    <row r="11" spans="2:17" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
         <v>123</v>
       </c>
@@ -11269,7 +11296,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="2:17" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="25"/>
       <c r="C12" s="26" t="s">
         <v>126</v>
@@ -11303,11 +11330,11 @@
       <c r="P12" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="Q12" s="26" t="s">
+      <c r="Q12" s="33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="27" t="s">
         <v>127</v>
       </c>
@@ -11329,8 +11356,9 @@
       <c r="N13" s="28"/>
       <c r="O13" s="28"/>
       <c r="P13" s="28"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q13" s="16"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="29" t="s">
         <v>29</v>
       </c>
@@ -11369,11 +11397,11 @@
       <c r="P14" s="1">
         <v>0.47208315278172402</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="17">
         <v>0.68676149346608695</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="29" t="s">
         <v>30</v>
       </c>
@@ -11412,11 +11440,11 @@
       <c r="P15" s="1">
         <v>0.315566666666666</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="17">
         <v>0.62919999999999998</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
         <v>128</v>
       </c>
@@ -11455,11 +11483,11 @@
       <c r="P16" s="1">
         <v>0.34485912552708903</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="17">
         <v>0.60915655188727502</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
       <c r="D17" s="28"/>
@@ -11474,9 +11502,9 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q17" s="17"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="27" t="s">
         <v>104</v>
       </c>
@@ -11499,9 +11527,9 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q18" s="17"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
         <v>29</v>
       </c>
@@ -11540,11 +11568,11 @@
       <c r="P19" s="1">
         <v>0.49984463366335002</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="17">
         <v>0.80587057999512901</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="29" t="s">
         <v>30</v>
       </c>
@@ -11583,11 +11611,11 @@
       <c r="P20" s="1">
         <v>0.2145</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="17">
         <v>0.915333333333333</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
         <v>128</v>
       </c>
@@ -11626,11 +11654,11 @@
       <c r="P21" s="1">
         <v>0.28447691157993499</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="17">
         <v>0.84138310023543705</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
       <c r="D22" s="28"/>
@@ -11645,9 +11673,9 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q22" s="17"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="27" t="s">
         <v>129</v>
       </c>
@@ -11670,9 +11698,9 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q23" s="17"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>29</v>
       </c>
@@ -11711,11 +11739,11 @@
       <c r="P24" s="1">
         <v>0.44970345373591197</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="17">
         <v>0.60503064802476902</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="29" t="s">
         <v>30</v>
       </c>
@@ -11754,11 +11782,11 @@
       <c r="P25" s="1">
         <v>0.31394444444444403</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="17">
         <v>0.60333333333333306</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="29" t="s">
         <v>128</v>
       </c>
@@ -11797,11 +11825,11 @@
       <c r="P26" s="1">
         <v>0.33301913553937801</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="17">
         <v>0.56982111049793405</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
       <c r="D27" s="28"/>
@@ -11816,9 +11844,9 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q27" s="17"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="27" t="s">
         <v>130</v>
       </c>
@@ -11841,9 +11869,9 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q28" s="17"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="29" t="s">
         <v>29</v>
       </c>
@@ -11882,11 +11910,11 @@
       <c r="P29" s="1">
         <v>0.51146076903753401</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="17">
         <v>0.81284494326099799</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="29" t="s">
         <v>30</v>
       </c>
@@ -11925,11 +11953,11 @@
       <c r="P30" s="31">
         <v>0.42149999999999999</v>
       </c>
-      <c r="Q30" s="31">
+      <c r="Q30" s="34">
         <v>0.42066666666666602</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
         <v>128</v>
       </c>
@@ -11968,16 +11996,16 @@
       <c r="P31" s="1">
         <v>0.44076130943737502</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="17">
         <v>0.49493632770713403</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="32" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="2:13" ht="21" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B36" s="23" t="s">
         <v>123</v>
       </c>
@@ -11994,7 +12022,7 @@
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="25" t="s">
         <v>136</v>
       </c>
@@ -12027,7 +12055,7 @@
         <v>Metric &amp;A2C &amp;DQN &amp;PPO &amp; &amp;Metric &amp;A2C &amp;DQN &amp;PPO\\</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="27" t="s">
         <v>132</v>
       </c>
@@ -12046,7 +12074,7 @@
         <v>Overall (1500 samples) &amp; &amp; &amp; &amp; &amp; &amp; &amp; &amp; \\</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="29" t="s">
         <v>29</v>
       </c>
@@ -12078,7 +12106,7 @@
         <v>Precision &amp;4.31E-126 &amp;2.17E-109 &amp;2.81E-106 &amp; &amp;Precision &amp;25.071 &amp;23.170 &amp;22.804\\</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="29" t="s">
         <v>30</v>
       </c>
@@ -12110,7 +12138,7 @@
         <v>Recall &amp;4.20E-35 &amp;3.37E-16 &amp;4.36E-150 &amp; &amp;Recall &amp;12.522 &amp;8.206 &amp;27.650\\</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="29" t="s">
         <v>128</v>
       </c>
@@ -12142,7 +12170,7 @@
         <v>F_1_Score &amp;1.99E-64 &amp;1.46E-88 &amp;5.29E-155 &amp; &amp;F_1_Score &amp;17.364 &amp;20.634 &amp;28.160\\</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="29"/>
       <c r="C42" s="28"/>
       <c r="D42" s="28"/>
@@ -12158,7 +12186,7 @@
         <v xml:space="preserve"> &amp;0.00E+00 &amp;0.00E+00 &amp;0.00E+00 &amp; &amp; &amp;0.000 &amp;0.000 &amp;0.000\\</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="27" t="s">
         <v>133</v>
       </c>
@@ -12178,7 +12206,7 @@
         <v>Simulated (300 samples) &amp; &amp; &amp; &amp; &amp; &amp; &amp; &amp; \\</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="29" t="s">
         <v>29</v>
       </c>
@@ -12210,7 +12238,7 @@
         <v>Precision &amp;3.20E-98 &amp;1.69E-63 &amp;2.65E-81 &amp; &amp;Precision &amp;25.611 &amp;19.032 &amp;22.427\\</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="29" t="s">
         <v>30</v>
       </c>
@@ -12242,7 +12270,7 @@
         <v>Recall &amp;8.12E-104 &amp;2.56E-41 &amp;1.57E-264 &amp; &amp;Recall &amp;26.665 &amp;14.558 &amp;62.541\\</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="29" t="s">
         <v>128</v>
       </c>
@@ -12274,7 +12302,7 @@
         <v>F_1_Score &amp;9.60E-134 &amp;8.56E-99 &amp;2.96E-242 &amp; &amp;F_1_Score &amp;32.402 &amp;25.719 &amp;56.575\\</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="29"/>
       <c r="C47" s="28"/>
       <c r="D47" s="28"/>
@@ -12290,7 +12318,7 @@
         <v xml:space="preserve"> &amp;0.00E+00 &amp;0.00E+00 &amp;0.00E+00 &amp; &amp; &amp;0.000 &amp;0.000 &amp;0.000\\</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="27" t="s">
         <v>134</v>
       </c>
@@ -12310,7 +12338,7 @@
         <v>PHM-SS (900 samples) &amp; &amp; &amp; &amp; &amp; &amp; &amp; &amp; \\</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="29" t="s">
         <v>29</v>
       </c>
@@ -12342,7 +12370,7 @@
         <v>Precision &amp;2.27E-32 &amp;7.29E-31 &amp;9.95E-31 &amp; &amp;Precision &amp;12.082 &amp;11.770 &amp;11.742\\</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="29" t="s">
         <v>30</v>
       </c>
@@ -12374,7 +12402,7 @@
         <v>Recall &amp;1.27E-16 &amp;1.55E-06 &amp;8.19E-71 &amp; &amp;Recall &amp;8.357 &amp;4.821 &amp;18.607\\</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="29" t="s">
         <v>128</v>
       </c>
@@ -12406,7 +12434,7 @@
         <v>F_1_Score &amp;1.94E-19 &amp;4.67E-34 &amp;2.19E-67 &amp; &amp;F_1_Score &amp;9.121 &amp;12.423 &amp;18.098\\</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="29"/>
       <c r="C52" s="28"/>
       <c r="D52" s="28"/>
@@ -12422,7 +12450,7 @@
         <v xml:space="preserve"> &amp;0.00E+00 &amp;0.00E+00 &amp;0.00E+00 &amp; &amp; &amp;0.000 &amp;0.000 &amp;0.000\\</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="27" t="s">
         <v>135</v>
       </c>
@@ -12442,7 +12470,7 @@
         <v>PHM-MS (300 samples) &amp; &amp; &amp; &amp; &amp; &amp; &amp; &amp; \\</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="29" t="s">
         <v>29</v>
       </c>
@@ -12474,7 +12502,7 @@
         <v>Precision &amp;1.64E-60 &amp;3.34E-54 &amp;7.88E-59 &amp; &amp;Precision &amp;18.451 &amp;17.207 &amp;18.122\\</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="29" t="s">
         <v>30</v>
       </c>
@@ -12506,7 +12534,7 @@
         <v>Recall &amp;2.69E-10 &amp;2.69E-02 &amp;9.68E-01 &amp; &amp;Recall &amp;-6.425 &amp;-2.219 &amp;-0.041\\</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="29" t="s">
         <v>128</v>
       </c>

--- a/results-latex-tables/LaTex_Table_Formatter_V4.4_08-Jul-2023.xlsx
+++ b/results-latex-tables/LaTex_Table_Formatter_V4.4_08-Jul-2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rajesh\HEI\P-4 Research Phase\Empirical_Study_REINFORCE\results-latex-tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ResearchLab\Empirical_Study_REINFORCE\results-latex-tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F68DC9-56FF-4BD3-8901-59F50177EF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D224C551-26F5-44F7-9D71-0E90C07F7E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="436" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="436" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LATEX" sheetId="27" r:id="rId1"/>
@@ -22,24 +22,11 @@
     <sheet name="t-test" sheetId="35" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="140">
   <si>
     <t>environment_info</t>
   </si>
@@ -383,9 +370,6 @@
     <t>n</t>
   </si>
   <si>
-    <t>Abstract</t>
-  </si>
-  <si>
     <t>Pr</t>
   </si>
   <si>
@@ -474,6 +458,18 @@
   </si>
   <si>
     <t>Metric</t>
+  </si>
+  <si>
+    <t>Rc</t>
+  </si>
+  <si>
+    <t>F0.5</t>
+  </si>
+  <si>
+    <t>Supermodels</t>
+  </si>
+  <si>
+    <t>Abstract and super-model sections</t>
   </si>
 </sst>
 </file>
@@ -717,7 +713,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -939,8 +935,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1075,6 +1077,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1120,7 +1131,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1174,6 +1185,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="26" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1875,7 +1890,7 @@
   <dimension ref="A1:AH42"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
@@ -5041,10 +5056,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905A37E9-AAF7-4185-BB7B-87043DE103AD}">
-  <dimension ref="B1:O40"/>
+  <dimension ref="B1:O42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6061,6 +6076,11 @@
       <c r="O40" s="16" t="str">
         <f>_xlfn.CONCAT(TEXT(B40, "0.000"), " &amp; ",  TEXT(C40, "0.000"), " &amp; ",TEXT( D40,  "0.000"), " &amp; &amp;", TEXT(F40,  "0.000"), " &amp; ",TEXT(G40, "0.000"), " &amp; &amp; ", TEXT(I40,  "0.000"), " &amp; ", TEXT(J40, "0.000"), " &amp; &amp;",  TEXT(L40,  "0.000"), " &amp;", TEXT(M40,  "0.000"), " \\")</f>
         <v>REINFORCE &amp; 0.813 &amp; 0.119 &amp; &amp;0.421 &amp; 0.079 &amp; &amp; 0.495 &amp; 0.090 &amp; &amp;0.609 &amp;0.101 \\</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -6476,7 +6496,7 @@
   <sheetData>
     <row r="1" spans="1:34" ht="27" x14ac:dyDescent="0.35">
       <c r="B1" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
@@ -9090,17 +9110,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBC427A-C68D-45FE-989E-74DC87A3B6CF}">
-  <dimension ref="A2:AH25"/>
+  <dimension ref="A1:AH28"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2:AH17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.140625" customWidth="1"/>
+    <col min="15" max="18" width="9.140625" customWidth="1"/>
+    <col min="23" max="26" width="9.140625" customWidth="1"/>
+    <col min="31" max="35" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="F1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="AD1" s="36"/>
+    </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>105</v>
@@ -9117,7 +9148,7 @@
       <c r="E2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="37" t="s">
         <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -9141,7 +9172,7 @@
       <c r="M2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="37" t="s">
         <v>53</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -9165,7 +9196,7 @@
       <c r="U2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="37" t="s">
         <v>55</v>
       </c>
       <c r="W2" s="1" t="s">
@@ -9189,7 +9220,7 @@
       <c r="AC2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AD2" s="37" t="s">
         <v>57</v>
       </c>
       <c r="AE2" s="1" t="s">
@@ -9221,7 +9252,7 @@
       <c r="E3" s="1">
         <v>0.92604813601977498</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="37">
         <v>0.90786648456907004</v>
       </c>
       <c r="G3" s="1">
@@ -9245,7 +9276,7 @@
       <c r="M3" s="1">
         <v>0.66666666666666596</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="37">
         <v>0.55555555555555503</v>
       </c>
       <c r="O3" s="1">
@@ -9269,7 +9300,7 @@
       <c r="U3" s="1">
         <v>0.66680512649244295</v>
       </c>
-      <c r="V3" s="1">
+      <c r="V3" s="37">
         <v>0.55962256570240099</v>
       </c>
       <c r="W3" s="1">
@@ -9293,7 +9324,7 @@
       <c r="AC3" s="1">
         <v>0.51847883597883604</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="AD3" s="37">
         <v>0.59674369747899103</v>
       </c>
       <c r="AE3" s="1">
@@ -9325,7 +9356,7 @@
       <c r="E4" s="1">
         <v>0.95202889964122295</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="37">
         <v>0.95689659977703401</v>
       </c>
       <c r="G4" s="1">
@@ -9349,7 +9380,7 @@
       <c r="M4" s="1">
         <v>0.68042285726004004</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="37">
         <v>0.57100489949327105</v>
       </c>
       <c r="O4" s="1">
@@ -9373,7 +9404,7 @@
       <c r="U4" s="1">
         <v>0.66212741087083504</v>
       </c>
-      <c r="V4" s="1">
+      <c r="V4" s="37">
         <v>0.55428558844256504</v>
       </c>
       <c r="W4" s="1">
@@ -9397,7 +9428,7 @@
       <c r="AC4" s="1">
         <v>0.53017502893152002</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AD4" s="37">
         <v>0.58643350625216395</v>
       </c>
       <c r="AE4" s="1">
@@ -9429,7 +9460,7 @@
       <c r="E5" s="1">
         <v>0.95456567539097303</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="37">
         <v>0.93489621489621499</v>
       </c>
       <c r="G5" s="1">
@@ -9453,7 +9484,7 @@
       <c r="M5" s="1">
         <v>0.66892655367231602</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="37">
         <v>0.55808080808080796</v>
       </c>
       <c r="O5" s="1">
@@ -9477,7 +9508,7 @@
       <c r="U5" s="1">
         <v>0.66781609195402303</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="37">
         <v>0.55876350716466905</v>
       </c>
       <c r="W5" s="1">
@@ -9501,7 +9532,7 @@
       <c r="AC5" s="1">
         <v>0.433790051911494</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AD5" s="37">
         <v>0.50451726743328895</v>
       </c>
       <c r="AE5" s="1">
@@ -9533,7 +9564,7 @@
       <c r="E6" s="1">
         <v>0.93885962779893495</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="37">
         <v>0.90839947089947004</v>
       </c>
       <c r="G6" s="1">
@@ -9557,7 +9588,7 @@
       <c r="M6" s="1">
         <v>0.602917629842876</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="37">
         <v>0.59232381748686103</v>
       </c>
       <c r="O6" s="1">
@@ -9581,7 +9612,7 @@
       <c r="U6" s="1">
         <v>0.77587454981992798</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6" s="37">
         <v>0.69294096426449303</v>
       </c>
       <c r="W6" s="1">
@@ -9605,7 +9636,7 @@
       <c r="AC6" s="1">
         <v>0.70343570525058696</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AD6" s="37">
         <v>0.59735727340662104</v>
       </c>
       <c r="AE6" s="1">
@@ -9637,7 +9668,7 @@
       <c r="E7" s="1">
         <v>0.86076036432073499</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="37">
         <v>0.93237715913631203</v>
       </c>
       <c r="G7" s="1">
@@ -9661,7 +9692,7 @@
       <c r="M7" s="1">
         <v>0.66440677966101602</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="37">
         <v>0.55397727272727204</v>
       </c>
       <c r="O7" s="1">
@@ -9685,7 +9716,7 @@
       <c r="U7" s="1">
         <v>0.66779661016949099</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="37">
         <v>0.55871212121212099</v>
       </c>
       <c r="W7" s="1">
@@ -9709,7 +9740,7 @@
       <c r="AC7" s="1">
         <v>0.675443924070534</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AD7" s="37">
         <v>0.64287979046043497</v>
       </c>
       <c r="AE7" s="1">
@@ -9741,7 +9772,7 @@
       <c r="E8" s="1">
         <v>0.90530341908674195</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="37">
         <v>0.87137602978120199</v>
       </c>
       <c r="G8" s="1">
@@ -9765,7 +9796,7 @@
       <c r="M8" s="1">
         <v>0.58802954183720302</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="37">
         <v>0.54562208866051298</v>
       </c>
       <c r="O8" s="1">
@@ -9789,7 +9820,7 @@
       <c r="U8" s="1">
         <v>0.66789401909214796</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V8" s="37">
         <v>0.55982793046746504</v>
       </c>
       <c r="W8" s="1">
@@ -9813,7 +9844,7 @@
       <c r="AC8" s="1">
         <v>0.60435461548904901</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AD8" s="37">
         <v>0.55070744403944405</v>
       </c>
       <c r="AE8" s="1">
@@ -9845,7 +9876,7 @@
       <c r="E9" s="1">
         <v>0.89512516469038195</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="37">
         <v>0.84232480533926601</v>
       </c>
       <c r="G9" s="1">
@@ -9869,7 +9900,7 @@
       <c r="M9" s="1">
         <v>0.58327472086143195</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="37">
         <v>0.55364531302031295</v>
       </c>
       <c r="O9" s="1">
@@ -9893,7 +9924,7 @@
       <c r="U9" s="1">
         <v>0.65964912280701704</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V9" s="37">
         <v>0.55447225578039505</v>
       </c>
       <c r="W9" s="1">
@@ -9917,7 +9948,7 @@
       <c r="AC9" s="1">
         <v>0.70237621100449599</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AD9" s="37">
         <v>0.62244089900339905</v>
       </c>
       <c r="AE9" s="1">
@@ -9949,7 +9980,7 @@
       <c r="E10" s="1">
         <v>0.87929191882249902</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="37">
         <v>0.82880366412415896</v>
       </c>
       <c r="G10" s="1">
@@ -9973,7 +10004,7 @@
       <c r="M10" s="1">
         <v>0.60260514117513597</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="37">
         <v>0.57326781076327604</v>
       </c>
       <c r="O10" s="1">
@@ -9997,7 +10028,7 @@
       <c r="U10" s="1">
         <v>0.84259944495837102</v>
       </c>
-      <c r="V10" s="1">
+      <c r="V10" s="37">
         <v>0.77364369501466201</v>
       </c>
       <c r="W10" s="1">
@@ -10021,7 +10052,7 @@
       <c r="AC10" s="1">
         <v>0.59583761620042397</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AD10" s="37">
         <v>0.56471270069330404</v>
       </c>
       <c r="AE10" s="1">
@@ -10053,7 +10084,7 @@
       <c r="E11" s="1">
         <v>0.76652274250858599</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="37">
         <v>0.73006565837141402</v>
       </c>
       <c r="G11" s="1">
@@ -10077,7 +10108,7 @@
       <c r="M11" s="1">
         <v>0.640826339570996</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="37">
         <v>0.56297323702751301</v>
       </c>
       <c r="O11" s="1">
@@ -10101,7 +10132,7 @@
       <c r="U11" s="1">
         <v>0.67245480738667196</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V11" s="37">
         <v>0.56498645088761301</v>
       </c>
       <c r="W11" s="1">
@@ -10125,7 +10156,7 @@
       <c r="AC11" s="1">
         <v>0.63321424788366498</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="AD11" s="37">
         <v>0.55811900482138999</v>
       </c>
       <c r="AE11" s="1">
@@ -10157,7 +10188,7 @@
       <c r="E12" s="1">
         <v>0.94395083342451702</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="37">
         <v>0.97662631752305595</v>
       </c>
       <c r="G12" s="1">
@@ -10181,7 +10212,7 @@
       <c r="M12" s="1">
         <v>0.58732131542225796</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="37">
         <v>0.54486445710434295</v>
       </c>
       <c r="O12" s="1">
@@ -10205,7 +10236,7 @@
       <c r="U12" s="1">
         <v>0.95397023471895803</v>
       </c>
-      <c r="V12" s="1">
+      <c r="V12" s="37">
         <v>0.942314306064306</v>
       </c>
       <c r="W12" s="1">
@@ -10229,7 +10260,7 @@
       <c r="AC12" s="1">
         <v>0.61487124797331605</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AD12" s="37">
         <v>0.59725202264557498</v>
       </c>
       <c r="AE12" s="1">
@@ -10261,7 +10292,7 @@
       <c r="E13" s="1">
         <v>0.86111015584699702</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="37">
         <v>0.90779985413137598</v>
       </c>
       <c r="G13" s="1">
@@ -10285,7 +10316,7 @@
       <c r="M13" s="1">
         <v>0.66779661016949099</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="37">
         <v>0.55681818181818099</v>
       </c>
       <c r="O13" s="1">
@@ -10309,7 +10340,7 @@
       <c r="U13" s="1">
         <v>0.82552839317545101</v>
       </c>
-      <c r="V13" s="1">
+      <c r="V13" s="37">
         <v>0.90147243107769404</v>
       </c>
       <c r="W13" s="1">
@@ -10333,7 +10364,7 @@
       <c r="AC13" s="1">
         <v>0.437812018995962</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AD13" s="37">
         <v>0.49735387619439902</v>
       </c>
       <c r="AE13" s="1">
@@ -10356,16 +10387,16 @@
       <c r="B14" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="35">
         <v>0.82074371534897805</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="35">
         <v>0.84499999999999997</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="35">
         <v>0.83145452963809796</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="37">
         <v>0.82471427747664605</v>
       </c>
       <c r="G14" s="1">
@@ -10389,7 +10420,7 @@
       <c r="M14" s="1">
         <v>0.62823946392830599</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="37">
         <v>0.57200429178642198</v>
       </c>
       <c r="O14" s="1">
@@ -10404,16 +10435,16 @@
       <c r="R14" s="1">
         <v>6.98933772204888E-2</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="35">
         <v>0.98015873015873001</v>
       </c>
-      <c r="T14" s="1">
+      <c r="T14" s="35">
         <v>0.96</v>
       </c>
-      <c r="U14" s="1">
+      <c r="U14" s="35">
         <v>0.96933609821928102</v>
       </c>
-      <c r="V14" s="1">
+      <c r="V14" s="37">
         <v>0.97564450947603099</v>
       </c>
       <c r="W14" s="1">
@@ -10437,7 +10468,7 @@
       <c r="AC14" s="1">
         <v>0.56353269465529698</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AD14" s="37">
         <v>0.537350620324758</v>
       </c>
       <c r="AE14" s="1">
@@ -10469,7 +10500,7 @@
       <c r="E15" s="1">
         <v>0.90289497604967694</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="37">
         <v>0.85568621219344199</v>
       </c>
       <c r="G15" s="1">
@@ -10493,7 +10524,7 @@
       <c r="M15" s="1">
         <v>0.66666666666666596</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="37">
         <v>0.55555555555555503</v>
       </c>
       <c r="O15" s="1">
@@ -10517,7 +10548,7 @@
       <c r="U15" s="1">
         <v>0.66787658802177796</v>
       </c>
-      <c r="V15" s="1">
+      <c r="V15" s="37">
         <v>0.55982478438873695</v>
       </c>
       <c r="W15" s="1">
@@ -10541,7 +10572,7 @@
       <c r="AC15" s="1">
         <v>0.54885442832833597</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AD15" s="37">
         <v>0.52562617937617895</v>
       </c>
       <c r="AE15" s="1">
@@ -10573,7 +10604,7 @@
       <c r="E16" s="1">
         <v>0.576977653006574</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="37">
         <v>0.73760874542124499</v>
       </c>
       <c r="G16" s="1">
@@ -10597,7 +10628,7 @@
       <c r="M16" s="1">
         <v>0.66666666666666596</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="37">
         <v>0.55555555555555503</v>
       </c>
       <c r="O16" s="1">
@@ -10621,7 +10652,7 @@
       <c r="U16" s="1">
         <v>0.662049483732709</v>
       </c>
-      <c r="V16" s="1">
+      <c r="V16" s="37">
         <v>0.55520424343098695</v>
       </c>
       <c r="W16" s="1">
@@ -10645,7 +10676,7 @@
       <c r="AC16" s="1">
         <v>0.55797894096120904</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AD16" s="37">
         <v>0.521793376763942</v>
       </c>
       <c r="AE16" s="1">
@@ -10677,7 +10708,7 @@
       <c r="E17" s="1">
         <v>0.89618266717111295</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="37">
         <v>0.91791018964932003</v>
       </c>
       <c r="G17" s="1">
@@ -10701,7 +10732,7 @@
       <c r="M17" s="1">
         <v>0.66666666666666596</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="37">
         <v>0.55555555555555503</v>
       </c>
       <c r="O17" s="1">
@@ -10725,7 +10756,7 @@
       <c r="U17" s="1">
         <v>0.74090909090909096</v>
       </c>
-      <c r="V17" s="1">
+      <c r="V17" s="37">
         <v>0.86274509803921495</v>
       </c>
       <c r="W17" s="1">
@@ -10749,7 +10780,7 @@
       <c r="AC17" s="1">
         <v>0.57673058143902101</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AD17" s="37">
         <v>0.52618412783874402</v>
       </c>
       <c r="AE17" s="1">
@@ -10769,7 +10800,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="37"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -10777,7 +10808,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="N18" s="37"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -10785,7 +10816,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
+      <c r="V18" s="37"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
@@ -10793,7 +10824,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
+      <c r="AD18" s="37"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
@@ -10812,7 +10843,7 @@
         <f t="shared" si="0"/>
         <v>0.87273845089445501</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="37">
         <f t="shared" si="0"/>
         <v>0.87555677888594841</v>
       </c>
@@ -10844,7 +10875,7 @@
         <f t="shared" si="0"/>
         <v>0.63876224133784898</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="37">
         <f t="shared" si="0"/>
         <v>0.56045362667939957</v>
       </c>
@@ -10876,7 +10907,7 @@
         <f t="shared" si="0"/>
         <v>0.74017913815521308</v>
       </c>
-      <c r="V19" s="1">
+      <c r="V19" s="37">
         <f t="shared" si="0"/>
         <v>0.67829736342755687</v>
       </c>
@@ -10908,7 +10939,7 @@
         <f t="shared" si="0"/>
         <v>0.57979240993824988</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="AD19" s="37">
         <f t="shared" si="0"/>
         <v>0.56196478578217568</v>
       </c>
@@ -10933,7 +10964,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="37"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -10941,7 +10972,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="N20" s="37"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -10949,7 +10980,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
+      <c r="V20" s="37"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
@@ -10957,24 +10988,20 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
+      <c r="AD20" s="37"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="B21" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="37"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -10982,7 +11009,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="N21" s="37"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -10990,7 +11017,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
+      <c r="V21" s="37"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
@@ -10998,34 +11025,32 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
+      <c r="AD21" s="37"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="1">
-        <f>C19</f>
-        <v>0.88392420394707583</v>
-      </c>
-      <c r="D22" s="1">
-        <f>E19</f>
-        <v>0.87273845089445501</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="C22" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>137</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="N22" s="37"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -11033,7 +11058,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
+      <c r="V22" s="37"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
@@ -11041,34 +11066,20 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
+      <c r="AD22" s="37"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="1">
-        <f>K19</f>
-        <v>0.51997246637140981</v>
-      </c>
-      <c r="D23" s="1">
-        <f>M19</f>
-        <v>0.63876224133784898</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="N23" s="37"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -11076,7 +11087,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
+      <c r="V23" s="37"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
@@ -11084,7 +11095,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
+      <c r="AD23" s="37"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
@@ -11092,26 +11103,31 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1">
-        <f>S19</f>
-        <v>0.65086105665750416</v>
-      </c>
-      <c r="D24" s="1">
-        <f>U19</f>
-        <v>0.74017913815521308</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+        <f>K19</f>
+        <v>0.51997246637140981</v>
+      </c>
+      <c r="E24" s="1">
+        <f>L19</f>
+        <v>0.85866666666666658</v>
+      </c>
+      <c r="F24" s="1">
+        <f>M19</f>
+        <v>0.63876224133784898</v>
+      </c>
+      <c r="G24" s="37">
+        <f>N19</f>
+        <v>0.56045362667939957</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="N24" s="37"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -11119,7 +11135,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
+      <c r="V24" s="37"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
@@ -11127,7 +11143,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
+      <c r="AD24" s="37"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
@@ -11135,26 +11151,31 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1">
-        <f>AA19</f>
-        <v>0.55800190542581041</v>
-      </c>
-      <c r="D25" s="1">
-        <f>AC19</f>
-        <v>0.57979240993824988</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+        <f>S19</f>
+        <v>0.65086105665750416</v>
+      </c>
+      <c r="E25" s="1">
+        <f>T19</f>
+        <v>0.93699999999999994</v>
+      </c>
+      <c r="F25" s="1">
+        <f>U19</f>
+        <v>0.74017913815521308</v>
+      </c>
+      <c r="G25" s="37">
+        <f>V19</f>
+        <v>0.67829736342755687</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="N25" s="37"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -11162,7 +11183,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
+      <c r="V25" s="37"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
@@ -11170,14 +11191,129 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
+      <c r="AD25" s="37"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
     </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1">
+        <f>AA19</f>
+        <v>0.55800190542581041</v>
+      </c>
+      <c r="E26" s="1">
+        <f>AB19</f>
+        <v>0.64266666666666661</v>
+      </c>
+      <c r="F26" s="1">
+        <f>AC19</f>
+        <v>0.57979240993824988</v>
+      </c>
+      <c r="G26" s="37">
+        <f>AD19</f>
+        <v>0.56196478578217568</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="1">
+        <f>C19</f>
+        <v>0.88392420394707583</v>
+      </c>
+      <c r="E27" s="1">
+        <f>D19</f>
+        <v>0.8843333333333333</v>
+      </c>
+      <c r="F27" s="1">
+        <f>E19</f>
+        <v>0.87273845089445501</v>
+      </c>
+      <c r="G27" s="37">
+        <f>F19</f>
+        <v>0.87555677888594841</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="38"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <f>C27-MAX(C24:C26)</f>
+        <v>0.23306314728957167</v>
+      </c>
+      <c r="E28" s="1">
+        <f>E27-MAX(E24:E26)</f>
+        <v>-5.2666666666666639E-2</v>
+      </c>
+      <c r="F28" s="1">
+        <f>F27-MAX(F24:F26)</f>
+        <v>0.13255931273924193</v>
+      </c>
+      <c r="G28" s="1">
+        <f>G27-MAX(G24:G26)</f>
+        <v>0.19725941545839154</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11185,7 +11321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA18A990-26F2-4A3D-B461-CA3EE7632A75}">
   <dimension ref="B2:Q56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
@@ -11231,54 +11367,54 @@
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>113</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="21" t="s">
         <v>115</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="22" t="s">
         <v>117</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="22" t="s">
         <v>119</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G8" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G9" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
@@ -11286,20 +11422,20 @@
     </row>
     <row r="11" spans="2:17" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="23"/>
       <c r="H11" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" s="23" t="s">
         <v>124</v>
-      </c>
-      <c r="M11" s="23" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="12" spans="2:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="25"/>
       <c r="C12" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>25</v>
@@ -11336,7 +11472,7 @@
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13">
         <v>1500</v>
@@ -11345,13 +11481,13 @@
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
       <c r="H13" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
       <c r="M13" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N13" s="28"/>
       <c r="O13" s="28"/>
@@ -11446,7 +11582,7 @@
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="28">
@@ -11459,7 +11595,7 @@
         <v>5.2915684155002098E-155</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I16" s="1">
         <v>17.3636428588526</v>
@@ -11472,7 +11608,7 @@
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N16" s="1">
         <v>0.44166807409040798</v>
@@ -11617,7 +11753,7 @@
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="28">
@@ -11630,7 +11766,7 @@
         <v>2.96294283830361E-242</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I21" s="1">
         <v>32.402190474587201</v>
@@ -11643,7 +11779,7 @@
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N21" s="1">
         <v>0.36261981429192502</v>
@@ -11677,7 +11813,7 @@
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23">
         <v>900</v>
@@ -11686,14 +11822,14 @@
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
       <c r="H23" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -11788,7 +11924,7 @@
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="28">
@@ -11801,7 +11937,7 @@
         <v>2.19443258873019E-67</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I26" s="1">
         <v>9.1210560061112904</v>
@@ -11814,7 +11950,7 @@
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N26" s="1">
         <v>0.45244467580584302</v>
@@ -11848,7 +11984,7 @@
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C28">
         <v>300</v>
@@ -11857,14 +11993,14 @@
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
       <c r="H28" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -11959,7 +12095,7 @@
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="28">
@@ -11972,7 +12108,7 @@
         <v>1.3511740966455699E-3</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I31" s="1">
         <v>0.34942564568737999</v>
@@ -11985,7 +12121,7 @@
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N31" s="1">
         <v>0.48838652874258598</v>
@@ -12002,19 +12138,19 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B36" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
       <c r="G36" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -12024,7 +12160,7 @@
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>25</v>
@@ -12037,7 +12173,7 @@
       </c>
       <c r="F37" s="27"/>
       <c r="G37" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H37" s="26" t="s">
         <v>25</v>
@@ -12057,13 +12193,13 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C38" s="28"/>
       <c r="D38" s="28"/>
       <c r="E38" s="28"/>
       <c r="G38" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
@@ -12140,7 +12276,7 @@
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C41" s="28">
         <v>1.9919308224305299E-64</v>
@@ -12152,7 +12288,7 @@
         <v>5.2915684155002098E-155</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H41" s="1">
         <v>17.3636428588526</v>
@@ -12188,13 +12324,13 @@
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C43" s="28"/>
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
       <c r="G43" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -12272,7 +12408,7 @@
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C46" s="28">
         <v>9.5954024624663701E-134</v>
@@ -12284,7 +12420,7 @@
         <v>2.96294283830361E-242</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H46" s="1">
         <v>32.402190474587201</v>
@@ -12320,13 +12456,13 @@
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C48" s="28"/>
       <c r="D48" s="28"/>
       <c r="E48" s="28"/>
       <c r="G48" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -12404,7 +12540,7 @@
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C51" s="28">
         <v>1.9355122289398401E-19</v>
@@ -12416,7 +12552,7 @@
         <v>2.19443258873019E-67</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H51" s="1">
         <v>9.1210560061112904</v>
@@ -12452,13 +12588,13 @@
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C53" s="28"/>
       <c r="D53" s="28"/>
       <c r="E53" s="28"/>
       <c r="G53" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -12536,7 +12672,7 @@
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C56" s="28">
         <v>0.72689279578392996</v>
@@ -12548,7 +12684,7 @@
         <v>1.3511740966455699E-3</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H56" s="1">
         <v>0.34942564568737999</v>

--- a/results-latex-tables/LaTex_Table_Formatter_V4.4_08-Jul-2023.xlsx
+++ b/results-latex-tables/LaTex_Table_Formatter_V4.4_08-Jul-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ResearchLab\Empirical_Study_REINFORCE\results-latex-tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D224C551-26F5-44F7-9D71-0E90C07F7E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7CE59D-FB5C-4C0F-AAEC-70F06C1E1161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="436" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="490" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LATEX" sheetId="27" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="143">
   <si>
     <t>environment_info</t>
   </si>
@@ -471,6 +471,15 @@
   <si>
     <t>Abstract and super-model sections</t>
   </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>super models</t>
+  </si>
 </sst>
 </file>
 
@@ -479,7 +488,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -712,8 +721,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -901,12 +916,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -938,6 +947,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,7 +1158,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1146,16 +1173,15 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="26" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1167,8 +1193,8 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1176,19 +1202,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="11" fontId="29" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="29" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="29" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="29" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="26" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="31" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1554,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A59B2548-394C-41F7-89FB-6EF591314900}">
   <dimension ref="B1:M56"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:K33"/>
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41:K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,7 +1794,7 @@
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" t="str">
         <f>'Env.-wise-tables'!O28</f>
         <v>A2C &amp; 0.447 &amp; 0.077 &amp; &amp;0.477 &amp; 0.091 &amp; &amp; 0.452 &amp; 0.072 &amp; &amp;0.446 &amp;0.070 \\</v>
@@ -1742,7 +1804,7 @@
         <v>A2C &amp; 0.487 &amp; 0.086 &amp; &amp;0.582 &amp; 0.075 &amp; &amp; 0.488 &amp; 0.063 &amp; &amp;0.467 &amp;0.065 \\</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" t="str">
         <f>'Env.-wise-tables'!O29</f>
         <v>DQN &amp; 0.419 &amp; 0.179 &amp; &amp;0.507 &amp; 0.032 &amp; &amp; 0.379 &amp; 0.036 &amp; &amp;0.352 &amp;0.057 \\</v>
@@ -1752,7 +1814,7 @@
         <v>DQN &amp; 0.399 &amp; 0.204 &amp; &amp;0.491 &amp; 0.032 &amp; &amp; 0.361 &amp; 0.035 &amp; &amp;0.332 &amp;0.060 \\</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" t="str">
         <f>'Env.-wise-tables'!O30</f>
         <v>PPO &amp; 0.450 &amp; 0.146 &amp; &amp;0.314 &amp; 0.082 &amp; &amp; 0.333 &amp; 0.087 &amp; &amp;0.374 &amp;0.102 \\</v>
@@ -1762,7 +1824,7 @@
         <v>PPO &amp; 0.512 &amp; 0.107 &amp; &amp;0.422 &amp; 0.107 &amp; &amp; 0.441 &amp; 0.096 &amp; &amp;0.472 &amp;0.096 \\</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" t="str">
         <f>'Env.-wise-tables'!O31</f>
         <v>REINFORCE &amp; 0.605 &amp; 0.046 &amp; &amp;0.603 &amp; 0.046 &amp; &amp; 0.570 &amp; 0.041 &amp; &amp;0.576 &amp;0.040 \\</v>
@@ -1772,60 +1834,81 @@
         <v>REINFORCE &amp; 0.813 &amp; 0.119 &amp; &amp;0.421 &amp; 0.079 &amp; &amp; 0.495 &amp; 0.090 &amp; &amp;0.609 &amp;0.101 \\</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" t="str">
         <f>Training_times!F1</f>
         <v>Environment &amp;REINFORCE &amp;A2C&amp;DQN&amp;PPO\\</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" t="str">
         <f>Training_times!F2</f>
         <v>Simulated  - No noise &amp;214.23 &amp;41.19&amp;4.03&amp;41.13\\</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K41" s="11" t="str">
+        <f>'Super models'!O25</f>
+        <v>A2C &amp; 0.520 &amp; 0.031 &amp; &amp;0.859 &amp; 0.053 &amp; &amp; 0.639 &amp; 0.036 &amp; &amp;0.560 &amp;0.032 \\</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" t="str">
         <f>Training_times!F3</f>
         <v>Simulated  - Low noise &amp;199.89 &amp;41.52&amp;3.55&amp;40.66\\</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K42" s="11" t="str">
+        <f>'Super models'!O26</f>
+        <v>DQN &amp; 0.651 &amp; 0.022 &amp; &amp;0.937 &amp; 0.031 &amp; &amp; 0.740 &amp; 0.022 &amp; &amp;0.678 &amp;0.021 \\</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" t="str">
         <f>Training_times!F4</f>
         <v>Simulated  - High noise &amp;134.16 &amp;17.88&amp;1.53&amp;20.90\\</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K43" s="11" t="str">
+        <f>'Super models'!O27</f>
+        <v>PPO &amp; 0.558 &amp; 0.076 &amp; &amp;0.643 &amp; 0.097 &amp; &amp; 0.580 &amp; 0.079 &amp; &amp;0.562 &amp;0.075 \\</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" t="str">
         <f>Training_times!F5</f>
         <v>PHM C01 SS - No noise &amp;330.54 &amp;18.85&amp;2.08&amp;32.65\\</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K44" s="11" t="str">
+        <f>'Super models'!O28</f>
+        <v>REINFORCE &amp; 0.884 &amp; 0.042 &amp; &amp;0.884 &amp; 0.042 &amp; &amp; 0.873 &amp; 0.034 &amp; &amp;0.876 &amp;0.036 \\</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" t="str">
         <f>Training_times!F6</f>
         <v>PHM C01 SS - Low noise &amp;426.79 &amp;30.66&amp;3.69&amp;38.59\\</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="str">
         <f>Training_times!F7</f>
         <v>PHM C01 SS - High noise &amp;333.13 &amp;17.58&amp;1.80&amp;19.16\\</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" t="str">
         <f>Training_times!F8</f>
         <v>PHM C04 SS - No noise &amp;299.31 &amp;19.56&amp;1.86&amp;19.64\\</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" t="str">
         <f>Training_times!F9</f>
         <v>PHM C04 SS - Low noise &amp;264.90 &amp;18.27&amp;2.00&amp;19.69\\</v>
@@ -5059,7 +5142,7 @@
   <dimension ref="B1:O42"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B25" sqref="B25:V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6473,9 +6556,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84905F54-6535-414F-9705-8BE1D1F46B79}">
   <dimension ref="A1:AH42"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE43" sqref="AE43"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9110,2208 +9193,2324 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBC427A-C68D-45FE-989E-74DC87A3B6CF}">
-  <dimension ref="A1:AH28"/>
+  <dimension ref="A2:AL38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="9.140625" customWidth="1"/>
-    <col min="15" max="18" width="9.140625" customWidth="1"/>
-    <col min="23" max="26" width="9.140625" customWidth="1"/>
-    <col min="31" max="35" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.5703125" style="37" customWidth="1"/>
+    <col min="8" max="34" width="6.28515625" style="37" customWidth="1"/>
+    <col min="35" max="35" width="9.140625" style="38" customWidth="1"/>
+    <col min="36" max="38" width="9.140625" style="38"/>
+    <col min="39" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="F1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="AD1" s="36"/>
-    </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="U2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="37" t="s">
+      <c r="V2" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="AA2" s="19" t="s">
+      <c r="AA2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AB2" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AC2" s="19" t="s">
+      <c r="AC2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="AD2" s="37" t="s">
+      <c r="AD2" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AE2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AF2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AG2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AH2" s="37" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="37">
         <v>0.89654291360813099</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="37">
         <v>0.96</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="37">
         <v>0.92604813601977498</v>
       </c>
       <c r="F3" s="37">
         <v>0.90786648456907004</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="37">
         <v>5.9379680158287498E-2</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="37">
         <v>3.1622776601683798E-2</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="37">
         <v>3.47413265659684E-2</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="34">
         <v>4.8923443054322301E-2</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="37">
         <v>0.5</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="37">
         <v>1</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="37">
         <v>0.66666666666666596</v>
       </c>
       <c r="N3" s="37">
         <v>0.55555555555555503</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="37">
         <v>0</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="37">
         <v>0</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="37">
         <v>0</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="34">
         <v>0</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="37">
         <v>0.50547683310841196</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3" s="37">
         <v>0.98</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3" s="37">
         <v>0.66680512649244295</v>
       </c>
       <c r="V3" s="37">
         <v>0.55962256570240099</v>
       </c>
-      <c r="W3" s="1">
+      <c r="W3" s="37">
         <v>1.6713772353188501E-2</v>
       </c>
-      <c r="X3" s="1">
+      <c r="X3" s="37">
         <v>2.5819888974716099E-2</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Y3" s="37">
         <v>1.7820956618530101E-2</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="Z3" s="34">
         <v>1.7123711741087198E-2</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AA3" s="37">
         <v>0.66932234432234405</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AB3" s="37">
         <v>0.43</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AC3" s="37">
         <v>0.51847883597883604</v>
       </c>
       <c r="AD3" s="37">
         <v>0.59674369747899103</v>
       </c>
-      <c r="AE3" s="1">
+      <c r="AE3" s="37">
         <v>8.6721563371497098E-2</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AF3" s="37">
         <v>0.10852547064066401</v>
       </c>
-      <c r="AG3" s="1">
+      <c r="AG3" s="37">
         <v>0.10447439483410299</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AH3" s="37">
         <v>9.4975803642325801E-2</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="37">
         <v>0.96042606516290696</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="37">
         <v>0.94499999999999995</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="37">
         <v>0.95202889964122295</v>
       </c>
       <c r="F4" s="37">
         <v>0.95689659977703401</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="37">
         <v>3.0704044606808999E-2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="37">
         <v>3.6893239368631002E-2</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="37">
         <v>2.2238071205516099E-2</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="34">
         <v>2.4428029847876301E-2</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="37">
         <v>0.51572746835904704</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="37">
         <v>1</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="37">
         <v>0.68042285726004004</v>
       </c>
       <c r="N4" s="37">
         <v>0.57100489949327105</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="37">
         <v>1.2368742474578901E-2</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="37">
         <v>0</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="37">
         <v>1.07193967590403E-2</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="34">
         <v>1.21123630496185E-2</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="37">
         <v>0.5</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4" s="37">
         <v>0.98</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4" s="37">
         <v>0.66212741087083504</v>
       </c>
       <c r="V4" s="37">
         <v>0.55428558844256504</v>
       </c>
-      <c r="W4" s="1">
+      <c r="W4" s="37">
         <v>1.0467904883688799E-2</v>
       </c>
-      <c r="X4" s="1">
+      <c r="X4" s="37">
         <v>2.5819888974716099E-2</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Y4" s="37">
         <v>1.4303177178848299E-2</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="Z4" s="34">
         <v>1.16421890740942E-2</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AA4" s="37">
         <v>0.63310433031021196</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AB4" s="37">
         <v>0.45999999999999902</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AC4" s="37">
         <v>0.53017502893152002</v>
       </c>
       <c r="AD4" s="37">
         <v>0.58643350625216395</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AE4" s="37">
         <v>6.4667558822320198E-2</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AF4" s="37">
         <v>6.99205898780101E-2</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AG4" s="37">
         <v>5.8930350749555903E-2</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AH4" s="37">
         <v>5.6546077681772798E-2</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="37">
         <v>0.92237624694146403</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="37">
         <v>0.99</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="37">
         <v>0.95456567539097303</v>
       </c>
       <c r="F5" s="37">
         <v>0.93489621489621499</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="37">
         <v>4.00962276590636E-2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="37">
         <v>2.10818510677892E-2</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="37">
         <v>2.56135854350566E-2</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="34">
         <v>3.4069535988498899E-2</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="37">
         <v>0.502564102564102</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="37">
         <v>1</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="37">
         <v>0.66892655367231602</v>
       </c>
       <c r="N5" s="37">
         <v>0.55808080808080796</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="37">
         <v>5.4056028378945999E-3</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="37">
         <v>0</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="37">
         <v>4.7642601283138996E-3</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="34">
         <v>5.3236997645931001E-3</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="37">
         <v>0.50391363022941904</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="37">
         <v>0.99</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="37">
         <v>0.66781609195402303</v>
       </c>
       <c r="V5" s="37">
         <v>0.55876350716466905</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5" s="37">
         <v>1.0710599147261E-2</v>
       </c>
-      <c r="X5" s="1">
+      <c r="X5" s="37">
         <v>2.10818510677892E-2</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Y5" s="37">
         <v>1.2531918592319001E-2</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="Z5" s="34">
         <v>1.1270220342270499E-2</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AA5" s="37">
         <v>0.56925133689839502</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AB5" s="37">
         <v>0.35499999999999998</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AC5" s="37">
         <v>0.433790051911494</v>
       </c>
       <c r="AD5" s="37">
         <v>0.50451726743328895</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AE5" s="37">
         <v>0.115823110655949</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AF5" s="37">
         <v>0.106588513035463</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AG5" s="37">
         <v>0.107697783206592</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AH5" s="37">
         <v>0.110071007683241</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="37">
         <v>0.88927159796724997</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="37">
         <v>0.995</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="37">
         <v>0.93885962779893495</v>
       </c>
       <c r="F6" s="37">
         <v>0.90839947089947004</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="37">
         <v>2.8554818660027799E-2</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="37">
         <v>1.5811388300841899E-2</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="37">
         <v>1.6012189461533901E-2</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="34">
         <v>2.3364535974122001E-2</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="37">
         <v>0.58626212803962097</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="37">
         <v>0.625</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="37">
         <v>0.602917629842876</v>
       </c>
       <c r="N6" s="37">
         <v>0.59232381748686103</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="37">
         <v>8.2646639766584401E-2</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="37">
         <v>0.12304019216861101</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="37">
         <v>9.5409052618292106E-2</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="34">
         <v>8.5631216467018503E-2</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="37">
         <v>0.646907410350124</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="37">
         <v>0.97</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="37">
         <v>0.77587454981992798</v>
       </c>
       <c r="V6" s="37">
         <v>0.69294096426449303</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6" s="37">
         <v>2.7024930104527198E-2</v>
       </c>
-      <c r="X6" s="1">
+      <c r="X6" s="37">
         <v>4.8304589153964801E-2</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Y6" s="37">
         <v>3.1133336133271499E-2</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="Z6" s="34">
         <v>2.79569321983816E-2</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AA6" s="37">
         <v>0.54282214545372398</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AB6" s="37">
         <v>1</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AC6" s="37">
         <v>0.70343570525058696</v>
       </c>
       <c r="AD6" s="37">
         <v>0.59735727340662104</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AE6" s="37">
         <v>2.19979987964329E-2</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AF6" s="37">
         <v>0</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AG6" s="37">
         <v>1.85954041587089E-2</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AH6" s="37">
         <v>2.1359683683162801E-2</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="37">
         <v>0.98819444444444404</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="37">
         <v>0.76500000000000001</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="37">
         <v>0.86076036432073499</v>
       </c>
       <c r="F7" s="37">
         <v>0.93237715913631203</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="37">
         <v>2.49420624945388E-2</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="37">
         <v>6.2583277851728597E-2</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="37">
         <v>3.8885323453253698E-2</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="34">
         <v>2.2708945065989201E-2</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="37">
         <v>0.498717948717948</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="37">
         <v>0.995</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="37">
         <v>0.66440677966101602</v>
       </c>
       <c r="N7" s="37">
         <v>0.55397727272727204</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="37">
         <v>4.0542021284210002E-3</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="37">
         <v>1.5811388300841899E-2</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="37">
         <v>7.1463901924709002E-3</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="34">
         <v>4.9909685293061E-3</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="37">
         <v>0.50384615384615306</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7" s="37">
         <v>0.99</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="37">
         <v>0.66779661016949099</v>
       </c>
       <c r="V7" s="37">
         <v>0.55871212121212099</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7" s="37">
         <v>1.05547769531867E-2</v>
       </c>
-      <c r="X7" s="1">
+      <c r="X7" s="37">
         <v>2.10818510677892E-2</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Y7" s="37">
         <v>1.35278983021227E-2</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="Z7" s="34">
         <v>1.15261480956474E-2</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AA7" s="37">
         <v>0.62319998519998498</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB7" s="37">
         <v>0.74</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AC7" s="37">
         <v>0.675443924070534</v>
       </c>
       <c r="AD7" s="37">
         <v>0.64287979046043497</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AE7" s="37">
         <v>8.2535353809625595E-2</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AF7" s="37">
         <v>0.12202003478482</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AG7" s="37">
         <v>9.5933490205186003E-2</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AH7" s="37">
         <v>8.6715824837762204E-2</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="37">
         <v>0.85045266327875002</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="37">
         <v>0.97</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="37">
         <v>0.90530341908674195</v>
       </c>
       <c r="F8" s="37">
         <v>0.87137602978120199</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="37">
         <v>6.0457425210049397E-2</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="37">
         <v>3.4960294939005002E-2</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="37">
         <v>4.0961576110046298E-2</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="34">
         <v>5.2537502332219203E-2</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="37">
         <v>0.52112137975677097</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="37">
         <v>0.67999999999999905</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="37">
         <v>0.58802954183720302</v>
       </c>
       <c r="N8" s="37">
         <v>0.54562208866051298</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="37">
         <v>5.5936346538237203E-2</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="37">
         <v>0.125166555703457</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="37">
         <v>7.9144510691645298E-2</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="34">
         <v>6.3122393944152505E-2</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="37">
         <v>0.50533063427800196</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8" s="37">
         <v>0.98499999999999999</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8" s="37">
         <v>0.66789401909214796</v>
       </c>
       <c r="V8" s="37">
         <v>0.55982793046746504</v>
       </c>
-      <c r="W8" s="1">
+      <c r="W8" s="37">
         <v>1.5355552042515E-2</v>
       </c>
-      <c r="X8" s="1">
+      <c r="X8" s="37">
         <v>2.4152294576982401E-2</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Y8" s="37">
         <v>1.73969536109564E-2</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="Z8" s="34">
         <v>1.60871962439516E-2</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AA8" s="37">
         <v>0.52026480463980396</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AB8" s="37">
         <v>0.72499999999999998</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AC8" s="37">
         <v>0.60435461548904901</v>
       </c>
       <c r="AD8" s="37">
         <v>0.55070744403944405</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AE8" s="37">
         <v>4.2596156199413399E-2</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AF8" s="37">
         <v>8.8975652100260899E-2</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AG8" s="37">
         <v>5.2538576880689102E-2</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AH8" s="37">
         <v>4.4657391934316497E-2</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="37">
         <v>0.81051282051282003</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="37">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="37">
         <v>0.89512516469038195</v>
       </c>
       <c r="F9" s="37">
         <v>0.84232480533926601</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="37">
         <v>2.6549435500314199E-2</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="37">
         <v>0</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="37">
         <v>1.63248457633836E-2</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="34">
         <v>2.3010796700859301E-2</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="37">
         <v>0.53621472764035605</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="37">
         <v>0.64500000000000002</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="37">
         <v>0.58327472086143195</v>
       </c>
       <c r="N9" s="37">
         <v>0.55364531302031295</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="37">
         <v>7.07488883508198E-2</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="37">
         <v>0.114139291121759</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="37">
         <v>8.1157431160259502E-2</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="34">
         <v>7.2654670796312396E-2</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="37">
         <v>0.50121092752671603</v>
       </c>
-      <c r="T9" s="1">
+      <c r="T9" s="37">
         <v>0.96499999999999997</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9" s="37">
         <v>0.65964912280701704</v>
       </c>
       <c r="V9" s="37">
         <v>0.55447225578039505</v>
       </c>
-      <c r="W9" s="1">
+      <c r="W9" s="37">
         <v>1.3064728014247099E-2</v>
       </c>
-      <c r="X9" s="1">
+      <c r="X9" s="37">
         <v>4.1163630117428199E-2</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Y9" s="37">
         <v>1.9800694037662499E-2</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="Z9" s="34">
         <v>1.5026345978570299E-2</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AA9" s="37">
         <v>0.57864146285754403</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AB9" s="37">
         <v>0.89499999999999902</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AC9" s="37">
         <v>0.70237621100449599</v>
       </c>
       <c r="AD9" s="37">
         <v>0.62244089900339905</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AE9" s="37">
         <v>3.7309566489290798E-2</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AF9" s="37">
         <v>8.64420165325996E-2</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AG9" s="37">
         <v>5.25533883191951E-2</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AH9" s="37">
         <v>4.2102890625757498E-2</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="37">
         <v>0.79842747429703897</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="37">
         <v>0.98</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="37">
         <v>0.87929191882249902</v>
       </c>
       <c r="F10" s="37">
         <v>0.82880366412415896</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="37">
         <v>3.6085838284220503E-2</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="37">
         <v>2.5819888974716099E-2</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="37">
         <v>2.1844449982897699E-2</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="34">
         <v>3.0462337461363901E-2</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="37">
         <v>0.55617741678611199</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="37">
         <v>0.66500000000000004</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="37">
         <v>0.60260514117513597</v>
       </c>
       <c r="N10" s="37">
         <v>0.57326781076327604</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="37">
         <v>5.83603700162202E-2</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="37">
         <v>8.5146931829631997E-2</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="37">
         <v>5.1197855022581902E-2</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="34">
         <v>5.2171520275295903E-2</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="37">
         <v>0.73365893365893298</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T10" s="37">
         <v>0.99</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10" s="37">
         <v>0.84259944495837102</v>
       </c>
       <c r="V10" s="37">
         <v>0.77364369501466201</v>
       </c>
-      <c r="W10" s="1">
+      <c r="W10" s="37">
         <v>2.4871243962126199E-2</v>
       </c>
-      <c r="X10" s="1">
+      <c r="X10" s="37">
         <v>3.1622776601683701E-2</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Y10" s="37">
         <v>2.4938505444383301E-2</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="Z10" s="34">
         <v>2.4601445647193E-2</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AA10" s="37">
         <v>0.546230460283055</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AB10" s="37">
         <v>0.65999999999999903</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AC10" s="37">
         <v>0.59583761620042397</v>
       </c>
       <c r="AD10" s="37">
         <v>0.56471270069330404</v>
       </c>
-      <c r="AE10" s="1">
+      <c r="AE10" s="37">
         <v>0.107339548820168</v>
       </c>
-      <c r="AF10" s="1">
+      <c r="AF10" s="37">
         <v>0.15951314818673801</v>
       </c>
-      <c r="AG10" s="1">
+      <c r="AG10" s="37">
         <v>0.126248799299087</v>
       </c>
-      <c r="AH10" s="1">
+      <c r="AH10" s="37">
         <v>0.113689507381839</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="37">
         <v>0.70824560641494205</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="37">
         <v>0.84</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="37">
         <v>0.76652274250858599</v>
       </c>
       <c r="F11" s="37">
         <v>0.73006565837141402</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="37">
         <v>6.7805030544857106E-2</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="37">
         <v>9.6609178307929505E-2</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="37">
         <v>6.8348389964540998E-2</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="34">
         <v>6.5472421655001695E-2</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="37">
         <v>0.52093735767360005</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="37">
         <v>0.83499999999999996</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="37">
         <v>0.640826339570996</v>
       </c>
       <c r="N11" s="37">
         <v>0.56297323702751301</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="37">
         <v>3.1576850696636502E-2</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="37">
         <v>9.4428103161435198E-2</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="37">
         <v>4.9814742730892203E-2</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="34">
         <v>3.7053657625352003E-2</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="37">
         <v>0.510601086916876</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11" s="37">
         <v>0.98499999999999999</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11" s="37">
         <v>0.67245480738667196</v>
       </c>
       <c r="V11" s="37">
         <v>0.56498645088761301</v>
       </c>
-      <c r="W11" s="1">
+      <c r="W11" s="37">
         <v>1.5100783674124801E-2</v>
       </c>
-      <c r="X11" s="1">
+      <c r="X11" s="37">
         <v>2.4152294576982401E-2</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Y11" s="37">
         <v>1.65006807432534E-2</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="Z11" s="34">
         <v>1.5596288474021299E-2</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AA11" s="37">
         <v>0.51746033968274296</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AB11" s="37">
         <v>0.82</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AC11" s="37">
         <v>0.63321424788366498</v>
       </c>
       <c r="AD11" s="37">
         <v>0.55811900482138999</v>
       </c>
-      <c r="AE11" s="1">
+      <c r="AE11" s="37">
         <v>3.55856537698334E-2</v>
       </c>
-      <c r="AF11" s="1">
+      <c r="AF11" s="37">
         <v>6.7494855771055198E-2</v>
       </c>
-      <c r="AG11" s="1">
+      <c r="AG11" s="37">
         <v>3.6623953043914602E-2</v>
       </c>
-      <c r="AH11" s="1">
+      <c r="AH11" s="37">
         <v>3.5002933118008298E-2</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="37">
         <v>1</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="37">
         <v>0.89499999999999902</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="37">
         <v>0.94395083342451702</v>
       </c>
       <c r="F12" s="37">
         <v>0.97662631752305595</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="37">
         <v>0</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="37">
         <v>4.9721446300587599E-2</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="37">
         <v>2.7119633529443299E-2</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="34">
         <v>1.1471394945376299E-2</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="37">
         <v>0.52043496502762798</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="37">
         <v>0.67999999999999905</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="37">
         <v>0.58732131542225796</v>
       </c>
       <c r="N12" s="37">
         <v>0.54486445710434295</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="37">
         <v>6.8553363650891097E-2</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="37">
         <v>0.12736648783028501</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="37">
         <v>8.4621584008630193E-2</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="34">
         <v>7.2517792046697602E-2</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="37">
         <v>0.93490306794654598</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T12" s="37">
         <v>0.97499999999999998</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U12" s="37">
         <v>0.95397023471895803</v>
       </c>
       <c r="V12" s="37">
         <v>0.942314306064306</v>
       </c>
-      <c r="W12" s="1">
+      <c r="W12" s="37">
         <v>4.5866611041968E-2</v>
       </c>
-      <c r="X12" s="1">
+      <c r="X12" s="37">
         <v>2.6352313834736501E-2</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Y12" s="37">
         <v>2.9922760818917E-2</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="Z12" s="34">
         <v>3.90085845171982E-2</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AA12" s="37">
         <v>0.58673687182382805</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AB12" s="37">
         <v>0.65</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AC12" s="37">
         <v>0.61487124797331605</v>
       </c>
       <c r="AD12" s="37">
         <v>0.59725202264557498</v>
       </c>
-      <c r="AE12" s="1">
+      <c r="AE12" s="37">
         <v>8.02303593870696E-2</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AF12" s="37">
         <v>0.108012344973464</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AG12" s="37">
         <v>8.7156808589370097E-2</v>
       </c>
-      <c r="AH12" s="1">
+      <c r="AH12" s="37">
         <v>8.1307600094869203E-2</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="37">
         <v>0.94262555899552802</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="37">
         <v>0.79500000000000004</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="37">
         <v>0.86111015584699702</v>
       </c>
       <c r="F13" s="37">
         <v>0.90779985413137598</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="37">
         <v>4.7615142473022301E-2</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="37">
         <v>5.98609499868933E-2</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="37">
         <v>4.1352736544290197E-2</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="34">
         <v>3.9477518848296901E-2</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="37">
         <v>0.50128205128205106</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="37">
         <v>1</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="37">
         <v>0.66779661016949099</v>
       </c>
       <c r="N13" s="37">
         <v>0.55681818181818099</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="37">
         <v>4.0542021284208996E-3</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="37">
         <v>0</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="37">
         <v>3.5731950962353998E-3</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="34">
         <v>3.9927748234449001E-3</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="37">
         <v>0.961057692307692</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T13" s="37">
         <v>0.72499999999999998</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U13" s="37">
         <v>0.82552839317545101</v>
       </c>
       <c r="V13" s="37">
         <v>0.90147243107769404</v>
       </c>
-      <c r="W13" s="1">
+      <c r="W13" s="37">
         <v>3.3802328123781103E-2</v>
       </c>
-      <c r="X13" s="1">
+      <c r="X13" s="37">
         <v>4.8591265790377501E-2</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Y13" s="37">
         <v>3.64626168585825E-2</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="Z13" s="34">
         <v>3.05082730952204E-2</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AA13" s="37">
         <v>0.551781225310637</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AB13" s="37">
         <v>0.37</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AC13" s="37">
         <v>0.437812018995962</v>
       </c>
       <c r="AD13" s="37">
         <v>0.49735387619439902</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AE13" s="37">
         <v>0.15076343303787201</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AF13" s="37">
         <v>9.4868329805051305E-2</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AG13" s="37">
         <v>0.101250389111227</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AH13" s="37">
         <v>0.11980298001920001</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="39">
         <v>0.82074371534897805</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="39">
         <v>0.84499999999999997</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="39">
         <v>0.83145452963809796</v>
       </c>
       <c r="F14" s="37">
         <v>0.82471427747664605</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="37">
         <v>4.1388671159760602E-2</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="37">
         <v>7.6194196337749598E-2</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="37">
         <v>5.0539094324275703E-2</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="34">
         <v>4.24296938822099E-2</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="37">
         <v>0.54014744972391104</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="37">
         <v>0.755</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="37">
         <v>0.62823946392830599</v>
       </c>
       <c r="N14" s="37">
         <v>0.57200429178642198</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="37">
         <v>6.6754701433393598E-2</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="37">
         <v>0.11167910378500601</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="37">
         <v>7.8383593908843002E-2</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="34">
         <v>6.98933772204888E-2</v>
       </c>
-      <c r="S14" s="35">
+      <c r="S14" s="39">
         <v>0.98015873015873001</v>
       </c>
-      <c r="T14" s="35">
+      <c r="T14" s="39">
         <v>0.96</v>
       </c>
-      <c r="U14" s="35">
+      <c r="U14" s="39">
         <v>0.96933609821928102</v>
       </c>
       <c r="V14" s="37">
         <v>0.97564450947603099</v>
       </c>
-      <c r="W14" s="1">
+      <c r="W14" s="37">
         <v>2.5717224993681901E-2</v>
       </c>
-      <c r="X14" s="1">
+      <c r="X14" s="37">
         <v>4.5946829173633998E-2</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Y14" s="37">
         <v>2.7385208209861098E-2</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="Z14" s="34">
         <v>2.3184598122261799E-2</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AA14" s="37">
         <v>0.52145717004412595</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AB14" s="37">
         <v>0.61499999999999999</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AC14" s="37">
         <v>0.56353269465529698</v>
       </c>
       <c r="AD14" s="37">
         <v>0.537350620324758</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AE14" s="37">
         <v>8.5784826084965807E-2</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AF14" s="37">
         <v>0.110679718105893</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AG14" s="37">
         <v>9.3509264266103898E-2</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AH14" s="37">
         <v>8.80673168504435E-2</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="37">
         <v>0.82695930880713497</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="37">
         <v>0.995</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="37">
         <v>0.90289497604967694</v>
       </c>
       <c r="F15" s="37">
         <v>0.85568621219344199</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="37">
         <v>3.5900229708985897E-2</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="37">
         <v>1.5811388300841899E-2</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="37">
         <v>2.4498642498148301E-2</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="34">
         <v>3.1691236908111299E-2</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="37">
         <v>0.5</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="37">
         <v>1</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="37">
         <v>0.66666666666666596</v>
       </c>
       <c r="N15" s="37">
         <v>0.55555555555555503</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="37">
         <v>0</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="37">
         <v>0</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="37">
         <v>0</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="34">
         <v>0</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="37">
         <v>0.50533610533610496</v>
       </c>
-      <c r="T15" s="1">
+      <c r="T15" s="37">
         <v>0.98499999999999999</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="37">
         <v>0.66787658802177796</v>
       </c>
       <c r="V15" s="37">
         <v>0.55982478438873695</v>
       </c>
-      <c r="W15" s="1">
+      <c r="W15" s="37">
         <v>1.4344537762901999E-2</v>
       </c>
-      <c r="X15" s="1">
+      <c r="X15" s="37">
         <v>2.4152294576982401E-2</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Y15" s="37">
         <v>1.58001689114931E-2</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="Z15" s="34">
         <v>1.48370742770591E-2</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AA15" s="37">
         <v>0.51158799171842595</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AB15" s="37">
         <v>0.59499999999999997</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AC15" s="37">
         <v>0.54885442832833597</v>
       </c>
       <c r="AD15" s="37">
         <v>0.52562617937617895</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AE15" s="37">
         <v>0.1117164111184</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AF15" s="37">
         <v>0.13006408676751099</v>
       </c>
-      <c r="AG15" s="1">
+      <c r="AG15" s="37">
         <v>0.116092265925046</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AH15" s="37">
         <v>0.11273516591433699</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="37">
         <v>0.910227272727272</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="37">
         <v>0.42499999999999999</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="37">
         <v>0.576977653006574</v>
       </c>
       <c r="F16" s="37">
         <v>0.73760874542124499</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="37">
         <v>8.5865455756052797E-2</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="37">
         <v>5.4006172486732097E-2</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="37">
         <v>5.6105872968222503E-2</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="34">
         <v>5.9686809955020299E-2</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="37">
         <v>0.5</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="37">
         <v>1</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="37">
         <v>0.66666666666666596</v>
       </c>
       <c r="N16" s="37">
         <v>0.55555555555555503</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="37">
         <v>0</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="37">
         <v>0</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="37">
         <v>0</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="34">
         <v>0</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="37">
         <v>0.50128387496808502</v>
       </c>
-      <c r="T16" s="1">
+      <c r="T16" s="37">
         <v>0.97499999999999998</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="37">
         <v>0.662049483732709</v>
       </c>
       <c r="V16" s="37">
         <v>0.55520424343098695</v>
       </c>
-      <c r="W16" s="1">
+      <c r="W16" s="37">
         <v>1.29791057288677E-2</v>
       </c>
-      <c r="X16" s="1">
+      <c r="X16" s="37">
         <v>3.5355339059327397E-2</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Y16" s="37">
         <v>1.8032563989476599E-2</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="Z16" s="34">
         <v>1.4446283751666801E-2</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AA16" s="37">
         <v>0.50071515585308601</v>
       </c>
-      <c r="AB16" s="1">
+      <c r="AB16" s="37">
         <v>0.63500000000000001</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="AC16" s="37">
         <v>0.55797894096120904</v>
       </c>
       <c r="AD16" s="37">
         <v>0.521793376763942</v>
       </c>
-      <c r="AE16" s="1">
+      <c r="AE16" s="37">
         <v>7.77978402343939E-2</v>
       </c>
-      <c r="AF16" s="1">
+      <c r="AF16" s="37">
         <v>0.10013879257199799</v>
       </c>
-      <c r="AG16" s="1">
+      <c r="AG16" s="37">
         <v>8.15184212741598E-2</v>
       </c>
-      <c r="AH16" s="1">
+      <c r="AH16" s="37">
         <v>7.8186221756150295E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="37">
         <v>0.93385737069947605</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="37">
         <v>0.86499999999999999</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="37">
         <v>0.89618266717111295</v>
       </c>
       <c r="F17" s="37">
         <v>0.91791018964932003</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="37">
         <v>5.1939824890496401E-2</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="37">
         <v>5.29674952735689E-2</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="37">
         <v>2.7767241148393199E-2</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="34">
         <v>3.6742200439679899E-2</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="37">
         <v>0.5</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="37">
         <v>1</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="37">
         <v>0.66666666666666596</v>
       </c>
       <c r="N17" s="37">
         <v>0.55555555555555503</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="37">
         <v>0</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="37">
         <v>0</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="37">
         <v>0</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="34">
         <v>0</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="37">
         <v>0.96923076923076901</v>
       </c>
-      <c r="T17" s="1">
+      <c r="T17" s="37">
         <v>0.6</v>
       </c>
-      <c r="U17" s="1">
+      <c r="U17" s="37">
         <v>0.74090909090909096</v>
       </c>
       <c r="V17" s="37">
         <v>0.86274509803921495</v>
       </c>
-      <c r="W17" s="1">
+      <c r="W17" s="37">
         <v>5.3785069136930798E-2</v>
       </c>
-      <c r="X17" s="1">
+      <c r="X17" s="37">
         <v>2.3570226039551501E-2</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Y17" s="37">
         <v>3.0886636063476001E-2</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="Z17" s="34">
         <v>4.1381792045164199E-2</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AA17" s="37">
         <v>0.49745295698924702</v>
       </c>
-      <c r="AB17" s="1">
+      <c r="AB17" s="37">
         <v>0.69</v>
       </c>
-      <c r="AC17" s="1">
+      <c r="AC17" s="37">
         <v>0.57673058143902101</v>
       </c>
       <c r="AD17" s="37">
         <v>0.52618412783874402</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AE17" s="37">
         <v>3.8734489227693E-2</v>
       </c>
-      <c r="AF17" s="1">
+      <c r="AF17" s="37">
         <v>9.9442892601175198E-2</v>
       </c>
-      <c r="AG17" s="1">
+      <c r="AG17" s="37">
         <v>5.65164111816574E-2</v>
       </c>
-      <c r="AH17" s="1">
+      <c r="AH17" s="37">
         <v>4.3757796179661398E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="37"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="C19" s="19">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="J18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="Z18" s="34"/>
+    </row>
+    <row r="19" spans="1:38" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="41">
         <f>AVERAGE(C3:C17)</f>
         <v>0.88392420394707583</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="41">
         <f t="shared" ref="D19:AH19" si="0">AVERAGE(D3:D17)</f>
         <v>0.8843333333333333</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="41">
         <f t="shared" si="0"/>
         <v>0.87273845089445501</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="41">
         <f t="shared" si="0"/>
         <v>0.87555677888594841</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="42">
         <f t="shared" si="0"/>
         <v>4.2485592473765724E-2</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="42">
         <f t="shared" si="0"/>
         <v>4.2262902939913236E-2</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="42">
         <f t="shared" si="0"/>
         <v>3.4156865263664703E-2</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="43">
         <f t="shared" si="0"/>
         <v>3.6431760203929832E-2</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="41">
         <f t="shared" si="0"/>
         <v>0.51997246637140981</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="41">
         <f t="shared" si="0"/>
         <v>0.85866666666666658</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="41">
         <f t="shared" si="0"/>
         <v>0.63876224133784898</v>
       </c>
-      <c r="N19" s="37">
+      <c r="N19" s="41">
         <f t="shared" si="0"/>
         <v>0.56045362667939957</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="42">
         <f t="shared" si="0"/>
         <v>3.0697327334806547E-2</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="42">
         <f t="shared" si="0"/>
         <v>5.3118536926735148E-2</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="42">
         <f t="shared" si="0"/>
         <v>3.6395467487813644E-2</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="43">
         <f t="shared" si="0"/>
         <v>3.1964295636152024E-2</v>
       </c>
-      <c r="S19" s="19">
+      <c r="S19" s="41">
         <f t="shared" si="0"/>
         <v>0.65086105665750416</v>
       </c>
-      <c r="T19" s="1">
+      <c r="T19" s="41">
         <f t="shared" si="0"/>
         <v>0.93699999999999994</v>
       </c>
-      <c r="U19" s="19">
+      <c r="U19" s="41">
         <f t="shared" si="0"/>
         <v>0.74017913815521308</v>
       </c>
-      <c r="V19" s="37">
+      <c r="V19" s="41">
         <f t="shared" si="0"/>
         <v>0.67829736342755687</v>
       </c>
-      <c r="W19" s="1">
+      <c r="W19" s="42">
         <f t="shared" si="0"/>
         <v>2.2023944528199786E-2</v>
       </c>
-      <c r="X19" s="1">
+      <c r="X19" s="42">
         <f t="shared" si="0"/>
         <v>3.114448890577743E-2</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="Y19" s="42">
         <f t="shared" si="0"/>
         <v>2.1762938367543571E-2</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="Z19" s="43">
         <f t="shared" si="0"/>
         <v>2.0946472240252503E-2</v>
       </c>
-      <c r="AA19" s="19">
+      <c r="AA19" s="41">
         <f t="shared" si="0"/>
         <v>0.55800190542581041</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AB19" s="41">
         <f t="shared" si="0"/>
         <v>0.64266666666666661</v>
       </c>
-      <c r="AC19" s="19">
+      <c r="AC19" s="41">
         <f t="shared" si="0"/>
         <v>0.57979240993824988</v>
       </c>
-      <c r="AD19" s="37">
+      <c r="AD19" s="41">
         <f t="shared" si="0"/>
         <v>0.56196478578217568</v>
       </c>
-      <c r="AE19" s="1">
+      <c r="AE19" s="42">
         <f t="shared" si="0"/>
         <v>7.5973591321661649E-2</v>
       </c>
-      <c r="AF19" s="1">
+      <c r="AF19" s="42">
         <f t="shared" si="0"/>
         <v>9.6845763050313546E-2</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AG19" s="42">
         <f t="shared" si="0"/>
         <v>7.930931340297305E-2</v>
       </c>
-      <c r="AH19" s="1">
+      <c r="AH19" s="42">
         <f t="shared" si="0"/>
         <v>7.5265213426856478E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="37"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B21" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="C22" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22" s="20" t="s">
+      <c r="AI19" s="44"/>
+      <c r="AJ19" s="44"/>
+      <c r="AK19" s="44"/>
+      <c r="AL19" s="44"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="C20" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="37" t="s">
+      <c r="F20" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="37"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="37"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
+      <c r="G20" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="L20" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="M20" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="N20" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="O20" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="P20" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q20" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="R20" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="S20" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="T20" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="U20" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="V20" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="W20" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="X20" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y20" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z20" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA20" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB20" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC20" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD20" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE20" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF20" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG20" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH20" s="45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="C21" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="1">
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB21" s="46"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="46"/>
+      <c r="AE21" s="46"/>
+      <c r="AF21" s="46"/>
+      <c r="AG21" s="46"/>
+      <c r="AH21" s="46"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B22" s="17"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="47"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="C23" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="L23" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="M23" s="37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="37">
         <f>K19</f>
         <v>0.51997246637140981</v>
       </c>
-      <c r="E24" s="1">
+      <c r="D25" s="37">
+        <f>O19</f>
+        <v>3.0697327334806547E-2</v>
+      </c>
+      <c r="F25" s="37">
         <f>L19</f>
         <v>0.85866666666666658</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G25" s="37">
+        <f>P19</f>
+        <v>5.3118536926735148E-2</v>
+      </c>
+      <c r="I25" s="37">
         <f>M19</f>
         <v>0.63876224133784898</v>
       </c>
-      <c r="G24" s="37">
+      <c r="J25" s="37">
+        <f>Q19</f>
+        <v>3.6395467487813644E-2</v>
+      </c>
+      <c r="L25" s="37">
         <f>N19</f>
         <v>0.56045362667939957</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="37"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
+      <c r="M25" s="37">
+        <f>R19</f>
+        <v>3.1964295636152024E-2</v>
+      </c>
+      <c r="N25" s="47"/>
+      <c r="O25" s="48" t="str">
+        <f>_xlfn.CONCAT(TEXT(B25, "0.000"), " &amp; ",  TEXT(C25, "0.000"), " &amp; ",TEXT( D25,  "0.000"), " &amp; &amp;", TEXT(F25,  "0.000"), " &amp; ",TEXT(G25, "0.000"), " &amp; &amp; ", TEXT(I25,  "0.000"), " &amp; ", TEXT(J25, "0.000"), " &amp; &amp;",  TEXT(L25,  "0.000"), " &amp;", TEXT(M25,  "0.000"), " \\")</f>
+        <v>A2C &amp; 0.520 &amp; 0.031 &amp; &amp;0.859 &amp; 0.053 &amp; &amp; 0.639 &amp; 0.036 &amp; &amp;0.560 &amp;0.032 \\</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C26" s="37">
         <f>S19</f>
         <v>0.65086105665750416</v>
       </c>
-      <c r="E25" s="1">
+      <c r="D26" s="37">
+        <f>W19</f>
+        <v>2.2023944528199786E-2</v>
+      </c>
+      <c r="F26" s="37">
         <f>T19</f>
         <v>0.93699999999999994</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G26" s="37">
+        <f>X19</f>
+        <v>3.114448890577743E-2</v>
+      </c>
+      <c r="I26" s="37">
         <f>U19</f>
         <v>0.74017913815521308</v>
       </c>
-      <c r="G25" s="37">
+      <c r="J26" s="37">
+        <f>Y19</f>
+        <v>2.1762938367543571E-2</v>
+      </c>
+      <c r="L26" s="37">
         <f>V19</f>
         <v>0.67829736342755687</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="37"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
+      <c r="M26" s="37">
+        <f>Z19</f>
+        <v>2.0946472240252503E-2</v>
+      </c>
+      <c r="N26" s="47"/>
+      <c r="O26" s="48" t="str">
+        <f t="shared" ref="O26:O27" si="1">_xlfn.CONCAT(TEXT(B26, "0.000"), " &amp; ",  TEXT(C26, "0.000"), " &amp; ",TEXT( D26,  "0.000"), " &amp; &amp;", TEXT(F26,  "0.000"), " &amp; ",TEXT(G26, "0.000"), " &amp; &amp; ", TEXT(I26,  "0.000"), " &amp; ", TEXT(J26, "0.000"), " &amp; &amp;",  TEXT(L26,  "0.000"), " &amp;", TEXT(M26,  "0.000"), " \\")</f>
+        <v>DQN &amp; 0.651 &amp; 0.022 &amp; &amp;0.937 &amp; 0.031 &amp; &amp; 0.740 &amp; 0.022 &amp; &amp;0.678 &amp;0.021 \\</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C27" s="37">
         <f>AA19</f>
         <v>0.55800190542581041</v>
       </c>
-      <c r="E26" s="1">
+      <c r="D27" s="37">
+        <f>AE19</f>
+        <v>7.5973591321661649E-2</v>
+      </c>
+      <c r="F27" s="37">
         <f>AB19</f>
         <v>0.64266666666666661</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G27" s="37">
+        <f>AF19</f>
+        <v>9.6845763050313546E-2</v>
+      </c>
+      <c r="I27" s="37">
         <f>AC19</f>
         <v>0.57979240993824988</v>
       </c>
-      <c r="G26" s="37">
+      <c r="J27" s="37">
+        <f>AG19</f>
+        <v>7.930931340297305E-2</v>
+      </c>
+      <c r="L27" s="37">
         <f>AD19</f>
         <v>0.56196478578217568</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="37"/>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="M27" s="37">
+        <f>AH19</f>
+        <v>7.5265213426856478E-2</v>
+      </c>
+      <c r="N27" s="47"/>
+      <c r="O27" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>PPO &amp; 0.558 &amp; 0.076 &amp; &amp;0.643 &amp; 0.097 &amp; &amp; 0.580 &amp; 0.079 &amp; &amp;0.562 &amp;0.075 \\</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="37">
         <f>C19</f>
         <v>0.88392420394707583</v>
       </c>
-      <c r="E27" s="1">
+      <c r="D28" s="37">
+        <f>G19</f>
+        <v>4.2485592473765724E-2</v>
+      </c>
+      <c r="F28" s="37">
         <f>D19</f>
         <v>0.8843333333333333</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G28" s="37">
+        <f>H19</f>
+        <v>4.2262902939913236E-2</v>
+      </c>
+      <c r="I28" s="37">
         <f>E19</f>
         <v>0.87273845089445501</v>
       </c>
-      <c r="G27" s="37">
+      <c r="J28" s="37">
+        <f>I19</f>
+        <v>3.4156865263664703E-2</v>
+      </c>
+      <c r="L28" s="37">
         <f>F19</f>
         <v>0.87555677888594841</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="38"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="C28" s="1">
-        <f>C27-MAX(C24:C26)</f>
+      <c r="M28" s="37">
+        <f>J19</f>
+        <v>3.6431760203929832E-2</v>
+      </c>
+      <c r="N28" s="47"/>
+      <c r="O28" s="48" t="str">
+        <f>_xlfn.CONCAT(TEXT(B28, "0.000"), " &amp; ",  TEXT(C28, "0.000"), " &amp; ",TEXT( D28,  "0.000"), " &amp; &amp;", TEXT(F28,  "0.000"), " &amp; ",TEXT(G28, "0.000"), " &amp; &amp; ", TEXT(I28,  "0.000"), " &amp; ", TEXT(J28, "0.000"), " &amp; &amp;",  TEXT(L28,  "0.000"), " &amp;", TEXT(M28,  "0.000"), " \\")</f>
+        <v>REINFORCE &amp; 0.884 &amp; 0.042 &amp; &amp;0.884 &amp; 0.042 &amp; &amp; 0.873 &amp; 0.034 &amp; &amp;0.876 &amp;0.036 \\</v>
+      </c>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="47"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B31" s="49" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="C32" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="37">
+        <f>K19</f>
+        <v>0.51997246637140981</v>
+      </c>
+      <c r="D34" s="37">
+        <f>L19</f>
+        <v>0.85866666666666658</v>
+      </c>
+      <c r="E34" s="37">
+        <f>M19</f>
+        <v>0.63876224133784898</v>
+      </c>
+      <c r="F34" s="37">
+        <f>N19</f>
+        <v>0.56045362667939957</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="37">
+        <f>S19</f>
+        <v>0.65086105665750416</v>
+      </c>
+      <c r="D35" s="37">
+        <f>T19</f>
+        <v>0.93699999999999994</v>
+      </c>
+      <c r="E35" s="37">
+        <f>U19</f>
+        <v>0.74017913815521308</v>
+      </c>
+      <c r="F35" s="37">
+        <f>V19</f>
+        <v>0.67829736342755687</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="37">
+        <f>AA19</f>
+        <v>0.55800190542581041</v>
+      </c>
+      <c r="D36" s="37">
+        <f>AB19</f>
+        <v>0.64266666666666661</v>
+      </c>
+      <c r="E36" s="37">
+        <f>AC19</f>
+        <v>0.57979240993824988</v>
+      </c>
+      <c r="F36" s="37">
+        <f>AD19</f>
+        <v>0.56196478578217568</v>
+      </c>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="37">
+        <f>C19</f>
+        <v>0.88392420394707583</v>
+      </c>
+      <c r="D37" s="37">
+        <f>D19</f>
+        <v>0.8843333333333333</v>
+      </c>
+      <c r="E37" s="37">
+        <f>E19</f>
+        <v>0.87273845089445501</v>
+      </c>
+      <c r="F37" s="37">
+        <f>F19</f>
+        <v>0.87555677888594841</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="37">
+        <f>C37-MAX(C34:C36)</f>
         <v>0.23306314728957167</v>
       </c>
-      <c r="E28" s="1">
-        <f>E27-MAX(E24:E26)</f>
+      <c r="D38" s="37">
+        <f>D37-MAX(D34:D36)</f>
         <v>-5.2666666666666639E-2</v>
       </c>
-      <c r="F28" s="1">
-        <f>F27-MAX(F24:F26)</f>
+      <c r="E38" s="37">
+        <f>E37-MAX(E34:E36)</f>
         <v>0.13255931273924193</v>
       </c>
-      <c r="G28" s="1">
-        <f>G27-MAX(G24:G26)</f>
+      <c r="F38" s="37">
+        <f>F37-MAX(F34:F36)</f>
         <v>0.19725941545839154</v>
       </c>
+      <c r="G38" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="K21:R21"/>
+    <mergeCell ref="S21:Z21"/>
+    <mergeCell ref="AA21:AH21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -11371,144 +11570,144 @@
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="20" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="21" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="21" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="21" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
-    </row>
-    <row r="11" spans="2:17" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
+      <c r="B10" s="20"/>
+    </row>
+    <row r="11" spans="2:17" s="23" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="H11" s="23" t="s">
+      <c r="C11" s="22"/>
+      <c r="H11" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="M11" s="23" t="s">
+      <c r="M11" s="22" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="2:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
-      <c r="C12" s="26" t="s">
+    <row r="12" spans="2:17" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="24"/>
+      <c r="C12" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26" t="s">
+      <c r="H12" s="24"/>
+      <c r="I12" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="26" t="s">
+      <c r="K12" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="25"/>
-      <c r="N12" s="26" t="s">
+      <c r="M12" s="24"/>
+      <c r="N12" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="26" t="s">
+      <c r="O12" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="26" t="s">
+      <c r="P12" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="Q12" s="33" t="s">
+      <c r="Q12" s="32" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>126</v>
       </c>
       <c r="C13">
         <v>1500</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="H13" s="27" t="s">
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="H13" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="M13" s="27" t="s">
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="M13" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
       <c r="Q13" s="16"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="28">
+      <c r="C14" s="28"/>
+      <c r="D14" s="27">
         <v>4.3064077476822897E-126</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="27">
         <v>2.1742518078751299E-109</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="27">
         <v>2.8094095848444099E-106</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="28" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="1">
@@ -11521,7 +11720,7 @@
         <v>22.803785573031899</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="29" t="s">
+      <c r="M14" s="28" t="s">
         <v>29</v>
       </c>
       <c r="N14" s="1">
@@ -11538,20 +11737,20 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="28">
+      <c r="C15" s="28"/>
+      <c r="D15" s="27">
         <v>4.1957394737836302E-35</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="27">
         <v>3.3675376806991198E-16</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="27">
         <v>4.3564897287920801E-150</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="28" t="s">
         <v>30</v>
       </c>
       <c r="I15" s="1">
@@ -11564,7 +11763,7 @@
         <v>27.649714175390301</v>
       </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="29" t="s">
+      <c r="M15" s="28" t="s">
         <v>30</v>
       </c>
       <c r="N15" s="1">
@@ -11581,20 +11780,20 @@
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="28">
+      <c r="C16" s="28"/>
+      <c r="D16" s="27">
         <v>1.9919308224305299E-64</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="27">
         <v>1.46236899267664E-88</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="27">
         <v>5.2915684155002098E-155</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="28" t="s">
         <v>127</v>
       </c>
       <c r="I16" s="1">
@@ -11607,7 +11806,7 @@
         <v>28.160027113775499</v>
       </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="29" t="s">
+      <c r="M16" s="28" t="s">
         <v>127</v>
       </c>
       <c r="N16" s="1">
@@ -11624,40 +11823,40 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="H17" s="29"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="H17" s="28"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="29"/>
+      <c r="M17" s="28"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="26" t="s">
         <v>104</v>
       </c>
       <c r="C18">
         <v>300</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="H18" s="27" t="s">
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="H18" s="26" t="s">
         <v>104</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="27" t="s">
+      <c r="M18" s="26" t="s">
         <v>104</v>
       </c>
       <c r="N18" s="1"/>
@@ -11666,20 +11865,20 @@
       <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="28">
+      <c r="C19" s="28"/>
+      <c r="D19" s="27">
         <v>3.2034808017275502E-98</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="27">
         <v>1.68689183456797E-63</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="27">
         <v>2.6537558650513899E-81</v>
       </c>
-      <c r="H19" s="29" t="s">
+      <c r="H19" s="28" t="s">
         <v>29</v>
       </c>
       <c r="I19" s="1">
@@ -11692,7 +11891,7 @@
         <v>22.4272928511236</v>
       </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="29" t="s">
+      <c r="M19" s="28" t="s">
         <v>29</v>
       </c>
       <c r="N19" s="1">
@@ -11709,20 +11908,20 @@
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="28">
+      <c r="C20" s="28"/>
+      <c r="D20" s="27">
         <v>8.1153483027441202E-104</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="27">
         <v>2.56120920623014E-41</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="27">
         <v>1.57040587106319E-264</v>
       </c>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="28" t="s">
         <v>30</v>
       </c>
       <c r="I20" s="1">
@@ -11735,7 +11934,7 @@
         <v>62.541276162757299</v>
       </c>
       <c r="L20" s="1"/>
-      <c r="M20" s="29" t="s">
+      <c r="M20" s="28" t="s">
         <v>30</v>
       </c>
       <c r="N20" s="1">
@@ -11752,20 +11951,20 @@
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="28">
+      <c r="C21" s="28"/>
+      <c r="D21" s="27">
         <v>9.5954024624663701E-134</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="27">
         <v>8.5569220061583792E-99</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="27">
         <v>2.96294283830361E-242</v>
       </c>
-      <c r="H21" s="29" t="s">
+      <c r="H21" s="28" t="s">
         <v>127</v>
       </c>
       <c r="I21" s="1">
@@ -11778,7 +11977,7 @@
         <v>56.575125946654602</v>
       </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="29" t="s">
+      <c r="M21" s="28" t="s">
         <v>127</v>
       </c>
       <c r="N21" s="1">
@@ -11795,40 +11994,40 @@
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="H22" s="29"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="H22" s="28"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="29"/>
+      <c r="M22" s="28"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="17"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="26" t="s">
         <v>128</v>
       </c>
       <c r="C23">
         <v>900</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="H23" s="27" t="s">
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="H23" s="26" t="s">
         <v>128</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="27" t="s">
+      <c r="M23" s="26" t="s">
         <v>128</v>
       </c>
       <c r="N23" s="1"/>
@@ -11837,20 +12036,20 @@
       <c r="Q23" s="17"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="28">
+      <c r="C24" s="28"/>
+      <c r="D24" s="27">
         <v>2.2700071068320899E-32</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="27">
         <v>7.2923062121199602E-31</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="27">
         <v>9.9519342467770907E-31</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="H24" s="28" t="s">
         <v>29</v>
       </c>
       <c r="I24" s="1">
@@ -11863,7 +12062,7 @@
         <v>11.7421040666958</v>
       </c>
       <c r="L24" s="1"/>
-      <c r="M24" s="29" t="s">
+      <c r="M24" s="28" t="s">
         <v>29</v>
       </c>
       <c r="N24" s="1">
@@ -11880,20 +12079,20 @@
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="28">
+      <c r="C25" s="28"/>
+      <c r="D25" s="27">
         <v>1.2708025070503301E-16</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="27">
         <v>1.54586549003206E-6</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="27">
         <v>8.1860347924545804E-71</v>
       </c>
-      <c r="H25" s="29" t="s">
+      <c r="H25" s="28" t="s">
         <v>30</v>
       </c>
       <c r="I25" s="1">
@@ -11906,7 +12105,7 @@
         <v>18.607122695700099</v>
       </c>
       <c r="L25" s="1"/>
-      <c r="M25" s="29" t="s">
+      <c r="M25" s="28" t="s">
         <v>30</v>
       </c>
       <c r="N25" s="1">
@@ -11923,20 +12122,20 @@
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="28">
+      <c r="C26" s="28"/>
+      <c r="D26" s="27">
         <v>1.9355122289398401E-19</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="27">
         <v>4.6671930733914402E-34</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="27">
         <v>2.19443258873019E-67</v>
       </c>
-      <c r="H26" s="29" t="s">
+      <c r="H26" s="28" t="s">
         <v>127</v>
       </c>
       <c r="I26" s="1">
@@ -11949,7 +12148,7 @@
         <v>18.097915457848199</v>
       </c>
       <c r="L26" s="1"/>
-      <c r="M26" s="29" t="s">
+      <c r="M26" s="28" t="s">
         <v>127</v>
       </c>
       <c r="N26" s="1">
@@ -11966,40 +12165,40 @@
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="H27" s="29"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="H27" s="28"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="29"/>
+      <c r="M27" s="28"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="17"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="26" t="s">
         <v>129</v>
       </c>
       <c r="C28">
         <v>300</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="H28" s="27" t="s">
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="H28" s="26" t="s">
         <v>129</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="27" t="s">
+      <c r="M28" s="26" t="s">
         <v>129</v>
       </c>
       <c r="N28" s="1"/>
@@ -12008,20 +12207,20 @@
       <c r="Q28" s="17"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="28">
+      <c r="C29" s="28"/>
+      <c r="D29" s="27">
         <v>1.6441957133241999E-60</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="27">
         <v>3.33667427541524E-54</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="27">
         <v>7.87996380654318E-59</v>
       </c>
-      <c r="H29" s="29" t="s">
+      <c r="H29" s="28" t="s">
         <v>29</v>
       </c>
       <c r="I29" s="1">
@@ -12034,7 +12233,7 @@
         <v>18.122136186018199</v>
       </c>
       <c r="L29" s="1"/>
-      <c r="M29" s="29" t="s">
+      <c r="M29" s="28" t="s">
         <v>29</v>
       </c>
       <c r="N29" s="1">
@@ -12051,63 +12250,63 @@
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30">
+      <c r="C30" s="28"/>
+      <c r="D30" s="29">
         <v>2.6904923809670802E-10</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="29">
         <v>2.6875955199143799E-2</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="29">
         <v>0.96758570289317603</v>
       </c>
-      <c r="H30" s="29" t="s">
+      <c r="H30" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="I30" s="31">
+      <c r="I30" s="30">
         <v>-6.4251919260288997</v>
       </c>
-      <c r="J30" s="31">
+      <c r="J30" s="30">
         <v>-2.2187858477900599</v>
       </c>
-      <c r="K30" s="31">
+      <c r="K30" s="30">
         <v>-4.0653498162216799E-2</v>
       </c>
-      <c r="L30" s="31"/>
-      <c r="M30" s="29" t="s">
+      <c r="L30" s="30"/>
+      <c r="M30" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="N30" s="31">
+      <c r="N30" s="30">
         <v>0.58199999999999996</v>
       </c>
-      <c r="O30" s="31">
+      <c r="O30" s="30">
         <v>0.49066666666666597</v>
       </c>
-      <c r="P30" s="31">
+      <c r="P30" s="30">
         <v>0.42149999999999999</v>
       </c>
-      <c r="Q30" s="34">
+      <c r="Q30" s="33">
         <v>0.42066666666666602</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="28">
+      <c r="C31" s="28"/>
+      <c r="D31" s="27">
         <v>0.72689279578392996</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="27">
         <v>1.43952504002988E-8</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="27">
         <v>1.3511740966455699E-3</v>
       </c>
-      <c r="H31" s="29" t="s">
+      <c r="H31" s="28" t="s">
         <v>127</v>
       </c>
       <c r="I31" s="1">
@@ -12120,7 +12319,7 @@
         <v>3.2200496788978299</v>
       </c>
       <c r="L31" s="1"/>
-      <c r="M31" s="29" t="s">
+      <c r="M31" s="28" t="s">
         <v>127</v>
       </c>
       <c r="N31" s="1">
@@ -12137,93 +12336,93 @@
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="31" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="23" t="s">
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="25" t="s">
+      <c r="F37" s="26"/>
+      <c r="G37" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="H37" s="26" t="s">
+      <c r="H37" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="26" t="s">
+      <c r="I37" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="J37" s="26" t="s">
+      <c r="J37" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="K37" s="26"/>
-      <c r="L37" s="27"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="26"/>
       <c r="M37" t="str">
         <f>CONCATENATE(B37, " &amp;", TEXT(C37,"0.00E+00")," &amp;", TEXT(D37, "0.00E+00"), " &amp;", TEXT(E37, "0.00E+00"), " &amp; &amp;", G37, " &amp;", TEXT(H37, "0.000"), " &amp;", TEXT(I37, "0.000")," &amp;", TEXT(J37, "0.000"), "\\")</f>
         <v>Metric &amp;A2C &amp;DQN &amp;PPO &amp; &amp;Metric &amp;A2C &amp;DQN &amp;PPO\\</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="G38" s="27" t="s">
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="G38" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
       <c r="M38" t="str">
         <f>CONCATENATE(B38, " &amp; &amp; &amp; &amp; &amp; &amp; &amp; &amp; \\")</f>
         <v>Overall (1500 samples) &amp; &amp; &amp; &amp; &amp; &amp; &amp; &amp; \\</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="27">
         <v>4.3064077476822897E-126</v>
       </c>
-      <c r="D39" s="28">
+      <c r="D39" s="27">
         <v>2.1742518078751299E-109</v>
       </c>
-      <c r="E39" s="28">
+      <c r="E39" s="27">
         <v>2.8094095848444099E-106</v>
       </c>
-      <c r="G39" s="29" t="s">
+      <c r="G39" s="28" t="s">
         <v>29</v>
       </c>
       <c r="H39" s="1">
@@ -12243,19 +12442,19 @@
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="28">
+      <c r="C40" s="27">
         <v>4.1957394737836302E-35</v>
       </c>
-      <c r="D40" s="28">
+      <c r="D40" s="27">
         <v>3.3675376806991198E-16</v>
       </c>
-      <c r="E40" s="28">
+      <c r="E40" s="27">
         <v>4.3564897287920801E-150</v>
       </c>
-      <c r="G40" s="29" t="s">
+      <c r="G40" s="28" t="s">
         <v>30</v>
       </c>
       <c r="H40" s="1">
@@ -12275,19 +12474,19 @@
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C41" s="27">
         <v>1.9919308224305299E-64</v>
       </c>
-      <c r="D41" s="28">
+      <c r="D41" s="27">
         <v>1.46236899267664E-88</v>
       </c>
-      <c r="E41" s="28">
+      <c r="E41" s="27">
         <v>5.2915684155002098E-155</v>
       </c>
-      <c r="G41" s="29" t="s">
+      <c r="G41" s="28" t="s">
         <v>127</v>
       </c>
       <c r="H41" s="1">
@@ -12307,11 +12506,11 @@
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="29"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="G42" s="29"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="G42" s="28"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -12323,13 +12522,13 @@
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="G43" s="27" t="s">
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="G43" s="26" t="s">
         <v>132</v>
       </c>
       <c r="H43" s="1"/>
@@ -12343,19 +12542,19 @@
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="28">
+      <c r="C44" s="27">
         <v>3.2034808017275502E-98</v>
       </c>
-      <c r="D44" s="28">
+      <c r="D44" s="27">
         <v>1.68689183456797E-63</v>
       </c>
-      <c r="E44" s="28">
+      <c r="E44" s="27">
         <v>2.6537558650513899E-81</v>
       </c>
-      <c r="G44" s="29" t="s">
+      <c r="G44" s="28" t="s">
         <v>29</v>
       </c>
       <c r="H44" s="1">
@@ -12375,19 +12574,19 @@
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="28">
+      <c r="C45" s="27">
         <v>8.1153483027441202E-104</v>
       </c>
-      <c r="D45" s="28">
+      <c r="D45" s="27">
         <v>2.56120920623014E-41</v>
       </c>
-      <c r="E45" s="28">
+      <c r="E45" s="27">
         <v>1.57040587106319E-264</v>
       </c>
-      <c r="G45" s="29" t="s">
+      <c r="G45" s="28" t="s">
         <v>30</v>
       </c>
       <c r="H45" s="1">
@@ -12407,19 +12606,19 @@
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="C46" s="28">
+      <c r="C46" s="27">
         <v>9.5954024624663701E-134</v>
       </c>
-      <c r="D46" s="28">
+      <c r="D46" s="27">
         <v>8.5569220061583792E-99</v>
       </c>
-      <c r="E46" s="28">
+      <c r="E46" s="27">
         <v>2.96294283830361E-242</v>
       </c>
-      <c r="G46" s="29" t="s">
+      <c r="G46" s="28" t="s">
         <v>127</v>
       </c>
       <c r="H46" s="1">
@@ -12439,11 +12638,11 @@
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="29"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="G47" s="29"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="G47" s="28"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -12455,13 +12654,13 @@
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="G48" s="27" t="s">
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="G48" s="26" t="s">
         <v>133</v>
       </c>
       <c r="H48" s="1"/>
@@ -12475,19 +12674,19 @@
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="28">
+      <c r="C49" s="27">
         <v>2.2700071068320899E-32</v>
       </c>
-      <c r="D49" s="28">
+      <c r="D49" s="27">
         <v>7.2923062121199602E-31</v>
       </c>
-      <c r="E49" s="28">
+      <c r="E49" s="27">
         <v>9.9519342467770907E-31</v>
       </c>
-      <c r="G49" s="29" t="s">
+      <c r="G49" s="28" t="s">
         <v>29</v>
       </c>
       <c r="H49" s="1">
@@ -12507,19 +12706,19 @@
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="28">
+      <c r="C50" s="27">
         <v>1.2708025070503301E-16</v>
       </c>
-      <c r="D50" s="28">
+      <c r="D50" s="27">
         <v>1.54586549003206E-6</v>
       </c>
-      <c r="E50" s="28">
+      <c r="E50" s="27">
         <v>8.1860347924545804E-71</v>
       </c>
-      <c r="G50" s="29" t="s">
+      <c r="G50" s="28" t="s">
         <v>30</v>
       </c>
       <c r="H50" s="1">
@@ -12539,19 +12738,19 @@
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="C51" s="28">
+      <c r="C51" s="27">
         <v>1.9355122289398401E-19</v>
       </c>
-      <c r="D51" s="28">
+      <c r="D51" s="27">
         <v>4.6671930733914402E-34</v>
       </c>
-      <c r="E51" s="28">
+      <c r="E51" s="27">
         <v>2.19443258873019E-67</v>
       </c>
-      <c r="G51" s="29" t="s">
+      <c r="G51" s="28" t="s">
         <v>127</v>
       </c>
       <c r="H51" s="1">
@@ -12571,11 +12770,11 @@
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="29"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="G52" s="29"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="G52" s="28"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -12587,13 +12786,13 @@
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="G53" s="27" t="s">
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="G53" s="26" t="s">
         <v>134</v>
       </c>
       <c r="H53" s="1"/>
@@ -12607,19 +12806,19 @@
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C54" s="28">
+      <c r="C54" s="27">
         <v>1.6441957133241999E-60</v>
       </c>
-      <c r="D54" s="28">
+      <c r="D54" s="27">
         <v>3.33667427541524E-54</v>
       </c>
-      <c r="E54" s="28">
+      <c r="E54" s="27">
         <v>7.87996380654318E-59</v>
       </c>
-      <c r="G54" s="29" t="s">
+      <c r="G54" s="28" t="s">
         <v>29</v>
       </c>
       <c r="H54" s="1">
@@ -12639,51 +12838,51 @@
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="30">
+      <c r="C55" s="29">
         <v>2.6904923809670802E-10</v>
       </c>
-      <c r="D55" s="30">
+      <c r="D55" s="29">
         <v>2.6875955199143799E-2</v>
       </c>
-      <c r="E55" s="30">
+      <c r="E55" s="29">
         <v>0.96758570289317603</v>
       </c>
-      <c r="G55" s="29" t="s">
+      <c r="G55" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="H55" s="31">
+      <c r="H55" s="30">
         <v>-6.4251919260288997</v>
       </c>
-      <c r="I55" s="31">
+      <c r="I55" s="30">
         <v>-2.2187858477900599</v>
       </c>
-      <c r="J55" s="31">
+      <c r="J55" s="30">
         <v>-4.0653498162216799E-2</v>
       </c>
-      <c r="K55" s="31"/>
-      <c r="L55" s="31"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
       <c r="M55" t="str">
         <f t="shared" si="0"/>
         <v>Recall &amp;2.69E-10 &amp;2.69E-02 &amp;9.68E-01 &amp; &amp;Recall &amp;-6.425 &amp;-2.219 &amp;-0.041\\</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="C56" s="28">
+      <c r="C56" s="27">
         <v>0.72689279578392996</v>
       </c>
-      <c r="D56" s="28">
+      <c r="D56" s="27">
         <v>1.43952504002988E-8</v>
       </c>
-      <c r="E56" s="28">
+      <c r="E56" s="27">
         <v>1.3511740966455699E-3</v>
       </c>
-      <c r="G56" s="29" t="s">
+      <c r="G56" s="28" t="s">
         <v>127</v>
       </c>
       <c r="H56" s="1">
